--- a/Transformer/result/wlp_transformer/daqingyoutian_A_lstm_BHC_result.xlsx
+++ b/Transformer/result/wlp_transformer/daqingyoutian_A_lstm_BHC_result.xlsx
@@ -455,7 +455,7 @@
         <v>1104.55</v>
       </c>
       <c r="B2" t="n">
-        <v>319.8489074707031</v>
+        <v>319.191650390625</v>
       </c>
       <c r="C2" t="n">
         <v>318.697</v>
@@ -466,7 +466,7 @@
         <v>1104.6</v>
       </c>
       <c r="B3" t="n">
-        <v>318.6598510742188</v>
+        <v>317.583251953125</v>
       </c>
       <c r="C3" t="n">
         <v>320.833</v>
@@ -477,7 +477,7 @@
         <v>1104.65</v>
       </c>
       <c r="B4" t="n">
-        <v>318.0295715332031</v>
+        <v>316.4968872070312</v>
       </c>
       <c r="C4" t="n">
         <v>326.923</v>
@@ -488,7 +488,7 @@
         <v>1104.7</v>
       </c>
       <c r="B5" t="n">
-        <v>317.9115905761719</v>
+        <v>316.0961303710938</v>
       </c>
       <c r="C5" t="n">
         <v>330.021</v>
@@ -499,7 +499,7 @@
         <v>1104.75</v>
       </c>
       <c r="B6" t="n">
-        <v>317.4809875488281</v>
+        <v>315.3671264648438</v>
       </c>
       <c r="C6" t="n">
         <v>333.333</v>
@@ -510,7 +510,7 @@
         <v>1104.8</v>
       </c>
       <c r="B7" t="n">
-        <v>317.4133911132812</v>
+        <v>315.0361022949219</v>
       </c>
       <c r="C7" t="n">
         <v>333.868</v>
@@ -521,7 +521,7 @@
         <v>1104.85</v>
       </c>
       <c r="B8" t="n">
-        <v>317.8992919921875</v>
+        <v>315.5187377929688</v>
       </c>
       <c r="C8" t="n">
         <v>334.776</v>
@@ -532,7 +532,7 @@
         <v>1104.9</v>
       </c>
       <c r="B9" t="n">
-        <v>318.9761962890625</v>
+        <v>316.9970397949219</v>
       </c>
       <c r="C9" t="n">
         <v>335.523</v>
@@ -543,7 +543,7 @@
         <v>1104.95</v>
       </c>
       <c r="B10" t="n">
-        <v>320.4371337890625</v>
+        <v>319.0531005859375</v>
       </c>
       <c r="C10" t="n">
         <v>337.66</v>
@@ -554,7 +554,7 @@
         <v>1105</v>
       </c>
       <c r="B11" t="n">
-        <v>322.8548889160156</v>
+        <v>322.3735961914062</v>
       </c>
       <c r="C11" t="n">
         <v>339.316</v>
@@ -565,7 +565,7 @@
         <v>1105.05</v>
       </c>
       <c r="B12" t="n">
-        <v>324.6729736328125</v>
+        <v>324.995361328125</v>
       </c>
       <c r="C12" t="n">
         <v>340.171</v>
@@ -576,7 +576,7 @@
         <v>1105.1</v>
       </c>
       <c r="B13" t="n">
-        <v>325.5929260253906</v>
+        <v>326.7666625976562</v>
       </c>
       <c r="C13" t="n">
         <v>341.132</v>
@@ -587,7 +587,7 @@
         <v>1105.15</v>
       </c>
       <c r="B14" t="n">
-        <v>326.282958984375</v>
+        <v>328.7130126953125</v>
       </c>
       <c r="C14" t="n">
         <v>343.59</v>
@@ -598,7 +598,7 @@
         <v>1105.2</v>
       </c>
       <c r="B15" t="n">
-        <v>326.9644775390625</v>
+        <v>331.1683349609375</v>
       </c>
       <c r="C15" t="n">
         <v>345.139</v>
@@ -609,7 +609,7 @@
         <v>1105.25</v>
       </c>
       <c r="B16" t="n">
-        <v>327.3740539550781</v>
+        <v>334.0853576660156</v>
       </c>
       <c r="C16" t="n">
         <v>348.611</v>
@@ -620,7 +620,7 @@
         <v>1105.3</v>
       </c>
       <c r="B17" t="n">
-        <v>327.795654296875</v>
+        <v>336.8397521972656</v>
       </c>
       <c r="C17" t="n">
         <v>350.427</v>
@@ -631,7 +631,7 @@
         <v>1105.35</v>
       </c>
       <c r="B18" t="n">
-        <v>328.2977905273438</v>
+        <v>339.3338012695312</v>
       </c>
       <c r="C18" t="n">
         <v>352.618</v>
@@ -642,7 +642,7 @@
         <v>1105.4</v>
       </c>
       <c r="B19" t="n">
-        <v>329.2607727050781</v>
+        <v>342.0313110351562</v>
       </c>
       <c r="C19" t="n">
         <v>353.098</v>
@@ -653,7 +653,7 @@
         <v>1105.45</v>
       </c>
       <c r="B20" t="n">
-        <v>330.292724609375</v>
+        <v>344.6041870117188</v>
       </c>
       <c r="C20" t="n">
         <v>354.167</v>
@@ -664,7 +664,7 @@
         <v>1105.5</v>
       </c>
       <c r="B21" t="n">
-        <v>331.0251159667969</v>
+        <v>346.5247192382812</v>
       </c>
       <c r="C21" t="n">
         <v>355.021</v>
@@ -675,7 +675,7 @@
         <v>1105.55</v>
       </c>
       <c r="B22" t="n">
-        <v>331.4428100585938</v>
+        <v>347.7481689453125</v>
       </c>
       <c r="C22" t="n">
         <v>358.013</v>
@@ -686,7 +686,7 @@
         <v>1105.6</v>
       </c>
       <c r="B23" t="n">
-        <v>332.0701293945312</v>
+        <v>349.0496215820312</v>
       </c>
       <c r="C23" t="n">
         <v>359.882</v>
@@ -697,7 +697,7 @@
         <v>1105.65</v>
       </c>
       <c r="B24" t="n">
-        <v>332.73388671875</v>
+        <v>350.281005859375</v>
       </c>
       <c r="C24" t="n">
         <v>361.165</v>
@@ -708,7 +708,7 @@
         <v>1105.7</v>
       </c>
       <c r="B25" t="n">
-        <v>333.0978393554688</v>
+        <v>351.0454711914062</v>
       </c>
       <c r="C25" t="n">
         <v>360.363</v>
@@ -719,7 +719,7 @@
         <v>1105.75</v>
       </c>
       <c r="B26" t="n">
-        <v>332.6336059570312</v>
+        <v>350.526611328125</v>
       </c>
       <c r="C26" t="n">
         <v>359.882</v>
@@ -730,7 +730,7 @@
         <v>1105.8</v>
       </c>
       <c r="B27" t="n">
-        <v>331.5665283203125</v>
+        <v>348.7844848632812</v>
       </c>
       <c r="C27" t="n">
         <v>359.348</v>
@@ -741,7 +741,7 @@
         <v>1105.85</v>
       </c>
       <c r="B28" t="n">
-        <v>330.0069885253906</v>
+        <v>346.2391967773438</v>
       </c>
       <c r="C28" t="n">
         <v>358.173</v>
@@ -752,7 +752,7 @@
         <v>1105.9</v>
       </c>
       <c r="B29" t="n">
-        <v>329.1857299804688</v>
+        <v>344.6246337890625</v>
       </c>
       <c r="C29" t="n">
         <v>356.624</v>
@@ -763,7 +763,7 @@
         <v>1105.95</v>
       </c>
       <c r="B30" t="n">
-        <v>329.4486999511719</v>
+        <v>344.7192687988281</v>
       </c>
       <c r="C30" t="n">
         <v>352.35</v>
@@ -774,7 +774,7 @@
         <v>1106</v>
       </c>
       <c r="B31" t="n">
-        <v>330.5027770996094</v>
+        <v>346.1356506347656</v>
       </c>
       <c r="C31" t="n">
         <v>349.893</v>
@@ -785,7 +785,7 @@
         <v>1106.05</v>
       </c>
       <c r="B32" t="n">
-        <v>330.7402954101562</v>
+        <v>346.1811828613281</v>
       </c>
       <c r="C32" t="n">
         <v>345.139</v>
@@ -796,7 +796,7 @@
         <v>1106.1</v>
       </c>
       <c r="B33" t="n">
-        <v>330.8240661621094</v>
+        <v>345.7268676757812</v>
       </c>
       <c r="C33" t="n">
         <v>342.949</v>
@@ -807,7 +807,7 @@
         <v>1106.15</v>
       </c>
       <c r="B34" t="n">
-        <v>330.8367614746094</v>
+        <v>345.5587158203125</v>
       </c>
       <c r="C34" t="n">
         <v>338.034</v>
@@ -818,7 +818,7 @@
         <v>1106.2</v>
       </c>
       <c r="B35" t="n">
-        <v>330.4169311523438</v>
+        <v>345.3219604492188</v>
       </c>
       <c r="C35" t="n">
         <v>335.47</v>
@@ -829,7 +829,7 @@
         <v>1106.25</v>
       </c>
       <c r="B36" t="n">
-        <v>330.2942199707031</v>
+        <v>345.3731994628906</v>
       </c>
       <c r="C36" t="n">
         <v>330.502</v>
@@ -840,7 +840,7 @@
         <v>1106.3</v>
       </c>
       <c r="B37" t="n">
-        <v>327.9884033203125</v>
+        <v>342.2536926269531</v>
       </c>
       <c r="C37" t="n">
         <v>328.312</v>
@@ -851,7 +851,7 @@
         <v>1106.35</v>
       </c>
       <c r="B38" t="n">
-        <v>325.1934814453125</v>
+        <v>337.2110290527344</v>
       </c>
       <c r="C38" t="n">
         <v>324.947</v>
@@ -862,7 +862,7 @@
         <v>1106.4</v>
       </c>
       <c r="B39" t="n">
-        <v>322.3878784179688</v>
+        <v>331.2883605957031</v>
       </c>
       <c r="C39" t="n">
         <v>323.878</v>
@@ -873,7 +873,7 @@
         <v>1106.45</v>
       </c>
       <c r="B40" t="n">
-        <v>320.8781127929688</v>
+        <v>326.7763061523438</v>
       </c>
       <c r="C40" t="n">
         <v>321.955</v>
@@ -884,7 +884,7 @@
         <v>1106.5</v>
       </c>
       <c r="B41" t="n">
-        <v>320.89306640625</v>
+        <v>324.5290832519531</v>
       </c>
       <c r="C41" t="n">
         <v>320.94</v>
@@ -895,7 +895,7 @@
         <v>1106.55</v>
       </c>
       <c r="B42" t="n">
-        <v>321.2671508789062</v>
+        <v>323.3039855957031</v>
       </c>
       <c r="C42" t="n">
         <v>318.964</v>
@@ -906,7 +906,7 @@
         <v>1106.6</v>
       </c>
       <c r="B43" t="n">
-        <v>321.6544494628906</v>
+        <v>322.5607604980469</v>
       </c>
       <c r="C43" t="n">
         <v>315.652</v>
@@ -917,7 +917,7 @@
         <v>1106.65</v>
       </c>
       <c r="B44" t="n">
-        <v>320.7730712890625</v>
+        <v>320.4800415039062</v>
       </c>
       <c r="C44" t="n">
         <v>313.675</v>
@@ -928,7 +928,7 @@
         <v>1106.7</v>
       </c>
       <c r="B45" t="n">
-        <v>319.3186340332031</v>
+        <v>317.8247680664062</v>
       </c>
       <c r="C45" t="n">
         <v>310.791</v>
@@ -939,7 +939,7 @@
         <v>1106.75</v>
       </c>
       <c r="B46" t="n">
-        <v>317.0987854003906</v>
+        <v>314.1012573242188</v>
       </c>
       <c r="C46" t="n">
         <v>311.912</v>
@@ -950,7 +950,7 @@
         <v>1106.8</v>
       </c>
       <c r="B47" t="n">
-        <v>316.612548828125</v>
+        <v>312.853271484375</v>
       </c>
       <c r="C47" t="n">
         <v>313.782</v>
@@ -961,7 +961,7 @@
         <v>1106.85</v>
       </c>
       <c r="B48" t="n">
-        <v>317.3170776367188</v>
+        <v>313.485107421875</v>
       </c>
       <c r="C48" t="n">
         <v>318.964</v>
@@ -972,7 +972,7 @@
         <v>1106.9</v>
       </c>
       <c r="B49" t="n">
-        <v>319.2986450195312</v>
+        <v>316.1671752929688</v>
       </c>
       <c r="C49" t="n">
         <v>320.833</v>
@@ -983,7 +983,7 @@
         <v>1106.95</v>
       </c>
       <c r="B50" t="n">
-        <v>320.5571594238281</v>
+        <v>318.0021362304688</v>
       </c>
       <c r="C50" t="n">
         <v>322.382</v>
@@ -994,7 +994,7 @@
         <v>1107</v>
       </c>
       <c r="B51" t="n">
-        <v>321.4095764160156</v>
+        <v>319.2645263671875</v>
       </c>
       <c r="C51" t="n">
         <v>322.703</v>
@@ -1005,7 +1005,7 @@
         <v>1107.05</v>
       </c>
       <c r="B52" t="n">
-        <v>321.8179931640625</v>
+        <v>319.9219360351562</v>
       </c>
       <c r="C52" t="n">
         <v>323.023</v>
@@ -1016,7 +1016,7 @@
         <v>1107.1</v>
       </c>
       <c r="B53" t="n">
-        <v>322.0291748046875</v>
+        <v>320.2710876464844</v>
       </c>
       <c r="C53" t="n">
         <v>323.771</v>
@@ -1027,7 +1027,7 @@
         <v>1107.15</v>
       </c>
       <c r="B54" t="n">
-        <v>322.4820556640625</v>
+        <v>320.9349060058594</v>
       </c>
       <c r="C54" t="n">
         <v>324.733</v>
@@ -1038,7 +1038,7 @@
         <v>1107.2</v>
       </c>
       <c r="B55" t="n">
-        <v>323.260498046875</v>
+        <v>322.0738830566406</v>
       </c>
       <c r="C55" t="n">
         <v>325.16</v>
@@ -1049,7 +1049,7 @@
         <v>1107.25</v>
       </c>
       <c r="B56" t="n">
-        <v>324.0863647460938</v>
+        <v>323.2591552734375</v>
       </c>
       <c r="C56" t="n">
         <v>327.778</v>
@@ -1060,7 +1060,7 @@
         <v>1107.3</v>
       </c>
       <c r="B57" t="n">
-        <v>325.1775207519531</v>
+        <v>324.8267822265625</v>
       </c>
       <c r="C57" t="n">
         <v>330.502</v>
@@ -1071,7 +1071,7 @@
         <v>1107.35</v>
       </c>
       <c r="B58" t="n">
-        <v>326.0546875</v>
+        <v>326.1542053222656</v>
       </c>
       <c r="C58" t="n">
         <v>331.838</v>
@@ -1082,7 +1082,7 @@
         <v>1107.4</v>
       </c>
       <c r="B59" t="n">
-        <v>326.5897827148438</v>
+        <v>327.0380249023438</v>
       </c>
       <c r="C59" t="n">
         <v>335.31</v>
@@ -1093,7 +1093,7 @@
         <v>1107.45</v>
       </c>
       <c r="B60" t="n">
-        <v>326.17041015625</v>
+        <v>326.6241760253906</v>
       </c>
       <c r="C60" t="n">
         <v>339.69</v>
@@ -1104,7 +1104,7 @@
         <v>1107.5</v>
       </c>
       <c r="B61" t="n">
-        <v>325.66552734375</v>
+        <v>325.9384460449219</v>
       </c>
       <c r="C61" t="n">
         <v>339.904</v>
@@ -1115,7 +1115,7 @@
         <v>1107.55</v>
       </c>
       <c r="B62" t="n">
-        <v>325.4554443359375</v>
+        <v>325.6067810058594</v>
       </c>
       <c r="C62" t="n">
         <v>338.355</v>
@@ -1126,7 +1126,7 @@
         <v>1107.6</v>
       </c>
       <c r="B63" t="n">
-        <v>325.4480590820312</v>
+        <v>325.640380859375</v>
       </c>
       <c r="C63" t="n">
         <v>337.18</v>
@@ -1137,7 +1137,7 @@
         <v>1107.65</v>
       </c>
       <c r="B64" t="n">
-        <v>325.2870483398438</v>
+        <v>325.4289855957031</v>
       </c>
       <c r="C64" t="n">
         <v>336.218</v>
@@ -1148,7 +1148,7 @@
         <v>1107.7</v>
       </c>
       <c r="B65" t="n">
-        <v>324.9725036621094</v>
+        <v>324.8418273925781</v>
       </c>
       <c r="C65" t="n">
         <v>336.378</v>
@@ -1159,7 +1159,7 @@
         <v>1107.75</v>
       </c>
       <c r="B66" t="n">
-        <v>324.9581909179688</v>
+        <v>324.6022644042969</v>
       </c>
       <c r="C66" t="n">
         <v>337.019</v>
@@ -1170,7 +1170,7 @@
         <v>1107.8</v>
       </c>
       <c r="B67" t="n">
-        <v>325.5530700683594</v>
+        <v>325.2208862304688</v>
       </c>
       <c r="C67" t="n">
         <v>337.34</v>
@@ -1181,7 +1181,7 @@
         <v>1107.85</v>
       </c>
       <c r="B68" t="n">
-        <v>326.1126098632812</v>
+        <v>325.8977966308594</v>
       </c>
       <c r="C68" t="n">
         <v>337.18</v>
@@ -1192,7 +1192,7 @@
         <v>1107.9</v>
       </c>
       <c r="B69" t="n">
-        <v>326.1295166015625</v>
+        <v>325.8986206054688</v>
       </c>
       <c r="C69" t="n">
         <v>334.882</v>
@@ -1203,7 +1203,7 @@
         <v>1107.95</v>
       </c>
       <c r="B70" t="n">
-        <v>325.9953308105469</v>
+        <v>325.700439453125</v>
       </c>
       <c r="C70" t="n">
         <v>329.915</v>
@@ -1214,7 +1214,7 @@
         <v>1108</v>
       </c>
       <c r="B71" t="n">
-        <v>325.0773315429688</v>
+        <v>324.6343994140625</v>
       </c>
       <c r="C71" t="n">
         <v>328.365</v>
@@ -1225,7 +1225,7 @@
         <v>1108.05</v>
       </c>
       <c r="B72" t="n">
-        <v>323.1881408691406</v>
+        <v>322.2127380371094</v>
       </c>
       <c r="C72" t="n">
         <v>325.748</v>
@@ -1236,7 +1236,7 @@
         <v>1108.1</v>
       </c>
       <c r="B73" t="n">
-        <v>320.90673828125</v>
+        <v>319.0228271484375</v>
       </c>
       <c r="C73" t="n">
         <v>324.145</v>
@@ -1247,7 +1247,7 @@
         <v>1108.15</v>
       </c>
       <c r="B74" t="n">
-        <v>319.6444091796875</v>
+        <v>317.0597534179688</v>
       </c>
       <c r="C74" t="n">
         <v>322.81</v>
@@ -1258,7 +1258,7 @@
         <v>1108.2</v>
       </c>
       <c r="B75" t="n">
-        <v>319.52587890625</v>
+        <v>316.7780456542969</v>
       </c>
       <c r="C75" t="n">
         <v>322.81</v>
@@ -1269,7 +1269,7 @@
         <v>1108.25</v>
       </c>
       <c r="B76" t="n">
-        <v>319.9182739257812</v>
+        <v>317.3160095214844</v>
       </c>
       <c r="C76" t="n">
         <v>323.344</v>
@@ -1280,7 +1280,7 @@
         <v>1108.3</v>
       </c>
       <c r="B77" t="n">
-        <v>320.7433471679688</v>
+        <v>318.505615234375</v>
       </c>
       <c r="C77" t="n">
         <v>323.13</v>
@@ -1291,7 +1291,7 @@
         <v>1108.35</v>
       </c>
       <c r="B78" t="n">
-        <v>321.6597900390625</v>
+        <v>320.0027465820312</v>
       </c>
       <c r="C78" t="n">
         <v>321.207</v>
@@ -1302,7 +1302,7 @@
         <v>1108.4</v>
       </c>
       <c r="B79" t="n">
-        <v>320.790283203125</v>
+        <v>319.1595153808594</v>
       </c>
       <c r="C79" t="n">
         <v>321.047</v>
@@ -1313,7 +1313,7 @@
         <v>1108.45</v>
       </c>
       <c r="B80" t="n">
-        <v>319.6779174804688</v>
+        <v>317.7131958007812</v>
       </c>
       <c r="C80" t="n">
         <v>323.344</v>
@@ -1324,7 +1324,7 @@
         <v>1108.5</v>
       </c>
       <c r="B81" t="n">
-        <v>318.2300109863281</v>
+        <v>315.5594177246094</v>
       </c>
       <c r="C81" t="n">
         <v>325.641</v>
@@ -1335,7 +1335,7 @@
         <v>1108.55</v>
       </c>
       <c r="B82" t="n">
-        <v>317.9404907226562</v>
+        <v>314.9554443359375</v>
       </c>
       <c r="C82" t="n">
         <v>332.799</v>
@@ -1346,7 +1346,7 @@
         <v>1108.6</v>
       </c>
       <c r="B83" t="n">
-        <v>320.017822265625</v>
+        <v>317.8396301269531</v>
       </c>
       <c r="C83" t="n">
         <v>335.256</v>
@@ -1357,7 +1357,7 @@
         <v>1108.65</v>
       </c>
       <c r="B84" t="n">
-        <v>322.0591430664062</v>
+        <v>320.9277954101562</v>
       </c>
       <c r="C84" t="n">
         <v>333.654</v>
@@ -1368,7 +1368,7 @@
         <v>1108.7</v>
       </c>
       <c r="B85" t="n">
-        <v>324.1908569335938</v>
+        <v>324.0553894042969</v>
       </c>
       <c r="C85" t="n">
         <v>331.25</v>
@@ -1379,7 +1379,7 @@
         <v>1108.75</v>
       </c>
       <c r="B86" t="n">
-        <v>325.4732666015625</v>
+        <v>325.9642944335938</v>
       </c>
       <c r="C86" t="n">
         <v>330.021</v>
@@ -1390,7 +1390,7 @@
         <v>1108.8</v>
       </c>
       <c r="B87" t="n">
-        <v>325.9870300292969</v>
+        <v>326.7991638183594</v>
       </c>
       <c r="C87" t="n">
         <v>330.342</v>
@@ -1401,7 +1401,7 @@
         <v>1108.85</v>
       </c>
       <c r="B88" t="n">
-        <v>326.7470703125</v>
+        <v>327.85205078125</v>
       </c>
       <c r="C88" t="n">
         <v>330.235</v>
@@ -1412,7 +1412,7 @@
         <v>1108.9</v>
       </c>
       <c r="B89" t="n">
-        <v>327.7067565917969</v>
+        <v>329.1009216308594</v>
       </c>
       <c r="C89" t="n">
         <v>329.327</v>
@@ -1423,7 +1423,7 @@
         <v>1108.95</v>
       </c>
       <c r="B90" t="n">
-        <v>327.5688171386719</v>
+        <v>328.8533325195312</v>
       </c>
       <c r="C90" t="n">
         <v>326.87</v>
@@ -1434,7 +1434,7 @@
         <v>1109</v>
       </c>
       <c r="B91" t="n">
-        <v>325.5908203125</v>
+        <v>326.1907348632812</v>
       </c>
       <c r="C91" t="n">
         <v>325.214</v>
@@ -1445,7 +1445,7 @@
         <v>1109.05</v>
       </c>
       <c r="B92" t="n">
-        <v>322.1810913085938</v>
+        <v>321.5650329589844</v>
       </c>
       <c r="C92" t="n">
         <v>325.694</v>
@@ -1456,7 +1456,7 @@
         <v>1109.1</v>
       </c>
       <c r="B93" t="n">
-        <v>319.5187683105469</v>
+        <v>317.8662109375</v>
       </c>
       <c r="C93" t="n">
         <v>331.357</v>
@@ -1467,7 +1467,7 @@
         <v>1109.15</v>
       </c>
       <c r="B94" t="n">
-        <v>316.5568542480469</v>
+        <v>313.7474975585938</v>
       </c>
       <c r="C94" t="n">
         <v>338.996</v>
@@ -1478,7 +1478,7 @@
         <v>1109.2</v>
       </c>
       <c r="B95" t="n">
-        <v>317.8692626953125</v>
+        <v>315.2447509765625</v>
       </c>
       <c r="C95" t="n">
         <v>341.613</v>
@@ -1489,7 +1489,7 @@
         <v>1109.25</v>
       </c>
       <c r="B96" t="n">
-        <v>320.6869812011719</v>
+        <v>318.84228515625</v>
       </c>
       <c r="C96" t="n">
         <v>342.682</v>
@@ -1500,7 +1500,7 @@
         <v>1109.3</v>
       </c>
       <c r="B97" t="n">
-        <v>323.9909973144531</v>
+        <v>323.3738098144531</v>
       </c>
       <c r="C97" t="n">
         <v>341.453</v>
@@ -1511,7 +1511,7 @@
         <v>1109.35</v>
       </c>
       <c r="B98" t="n">
-        <v>326.2023620605469</v>
+        <v>326.5863037109375</v>
       </c>
       <c r="C98" t="n">
         <v>335.523</v>
@@ -1522,7 +1522,7 @@
         <v>1109.4</v>
       </c>
       <c r="B99" t="n">
-        <v>327.9263305664062</v>
+        <v>329.1178283691406</v>
       </c>
       <c r="C99" t="n">
         <v>333.6</v>
@@ -1533,7 +1533,7 @@
         <v>1109.45</v>
       </c>
       <c r="B100" t="n">
-        <v>329.15185546875</v>
+        <v>330.9385375976562</v>
       </c>
       <c r="C100" t="n">
         <v>331.731</v>
@@ -1544,7 +1544,7 @@
         <v>1109.5</v>
       </c>
       <c r="B101" t="n">
-        <v>330.841552734375</v>
+        <v>333.2388610839844</v>
       </c>
       <c r="C101" t="n">
         <v>331.357</v>
@@ -1555,7 +1555,7 @@
         <v>1109.55</v>
       </c>
       <c r="B102" t="n">
-        <v>332.2437133789062</v>
+        <v>335.1105346679688</v>
       </c>
       <c r="C102" t="n">
         <v>328.632</v>
@@ -1566,7 +1566,7 @@
         <v>1109.6</v>
       </c>
       <c r="B103" t="n">
-        <v>332.6011352539062</v>
+        <v>335.4976501464844</v>
       </c>
       <c r="C103" t="n">
         <v>325.748</v>
@@ -1577,7 +1577,7 @@
         <v>1109.65</v>
       </c>
       <c r="B104" t="n">
-        <v>331.02587890625</v>
+        <v>333.4107971191406</v>
       </c>
       <c r="C104" t="n">
         <v>319.605</v>
@@ -1588,7 +1588,7 @@
         <v>1109.7</v>
       </c>
       <c r="B105" t="n">
-        <v>325.9788513183594</v>
+        <v>326.9178771972656</v>
       </c>
       <c r="C105" t="n">
         <v>316.346</v>
@@ -1599,7 +1599,7 @@
         <v>1109.75</v>
       </c>
       <c r="B106" t="n">
-        <v>321.8006286621094</v>
+        <v>321.0672912597656</v>
       </c>
       <c r="C106" t="n">
         <v>312.286</v>
@@ -1610,7 +1610,7 @@
         <v>1109.8</v>
       </c>
       <c r="B107" t="n">
-        <v>315.4976196289062</v>
+        <v>311.8598022460938</v>
       </c>
       <c r="C107" t="n">
         <v>311.378</v>
@@ -1621,7 +1621,7 @@
         <v>1109.85</v>
       </c>
       <c r="B108" t="n">
-        <v>311.9511108398438</v>
+        <v>305.9927673339844</v>
       </c>
       <c r="C108" t="n">
         <v>311.378</v>
@@ -1632,7 +1632,7 @@
         <v>1109.9</v>
       </c>
       <c r="B109" t="n">
-        <v>311.3862915039062</v>
+        <v>304.2884521484375</v>
       </c>
       <c r="C109" t="n">
         <v>312.927</v>
@@ -1643,7 +1643,7 @@
         <v>1109.95</v>
       </c>
       <c r="B110" t="n">
-        <v>313.0350646972656</v>
+        <v>306.3523864746094</v>
       </c>
       <c r="C110" t="n">
         <v>314.209</v>
@@ -1654,7 +1654,7 @@
         <v>1110</v>
       </c>
       <c r="B111" t="n">
-        <v>315.5782775878906</v>
+        <v>310.2343139648438</v>
       </c>
       <c r="C111" t="n">
         <v>315.598</v>
@@ -1665,7 +1665,7 @@
         <v>1110.05</v>
       </c>
       <c r="B112" t="n">
-        <v>317.70263671875</v>
+        <v>313.4898681640625</v>
       </c>
       <c r="C112" t="n">
         <v>318.75</v>
@@ -1676,7 +1676,7 @@
         <v>1110.1</v>
       </c>
       <c r="B113" t="n">
-        <v>320.8644104003906</v>
+        <v>318.0343933105469</v>
       </c>
       <c r="C113" t="n">
         <v>319.551</v>
@@ -1687,7 +1687,7 @@
         <v>1110.15</v>
       </c>
       <c r="B114" t="n">
-        <v>323.8953552246094</v>
+        <v>322.6207275390625</v>
       </c>
       <c r="C114" t="n">
         <v>323.13</v>
@@ -1698,7 +1698,7 @@
         <v>1110.2</v>
       </c>
       <c r="B115" t="n">
-        <v>325.4987182617188</v>
+        <v>325.4497985839844</v>
       </c>
       <c r="C115" t="n">
         <v>326.656</v>
@@ -1709,7 +1709,7 @@
         <v>1110.25</v>
       </c>
       <c r="B116" t="n">
-        <v>325.7947998046875</v>
+        <v>326.0748291015625</v>
       </c>
       <c r="C116" t="n">
         <v>333.12</v>
@@ -1720,7 +1720,7 @@
         <v>1110.3</v>
       </c>
       <c r="B117" t="n">
-        <v>326.5360717773438</v>
+        <v>326.9793701171875</v>
       </c>
       <c r="C117" t="n">
         <v>333.227</v>
@@ -1731,7 +1731,7 @@
         <v>1110.35</v>
       </c>
       <c r="B118" t="n">
-        <v>327.1720581054688</v>
+        <v>327.7958984375</v>
       </c>
       <c r="C118" t="n">
         <v>329.647</v>
@@ -1742,7 +1742,7 @@
         <v>1110.4</v>
       </c>
       <c r="B119" t="n">
-        <v>328.7380676269531</v>
+        <v>329.7440185546875</v>
       </c>
       <c r="C119" t="n">
         <v>328.9</v>
@@ -1753,7 +1753,7 @@
         <v>1110.45</v>
       </c>
       <c r="B120" t="n">
-        <v>329.947021484375</v>
+        <v>331.3428955078125</v>
       </c>
       <c r="C120" t="n">
         <v>329.06</v>
@@ -1764,7 +1764,7 @@
         <v>1110.5</v>
       </c>
       <c r="B121" t="n">
-        <v>329.8471374511719</v>
+        <v>331.380126953125</v>
       </c>
       <c r="C121" t="n">
         <v>327.404</v>
@@ -1775,7 +1775,7 @@
         <v>1110.55</v>
       </c>
       <c r="B122" t="n">
-        <v>327.2692260742188</v>
+        <v>328.3171691894531</v>
       </c>
       <c r="C122" t="n">
         <v>326.656</v>
@@ -1786,7 +1786,7 @@
         <v>1110.6</v>
       </c>
       <c r="B123" t="n">
-        <v>324.3037109375</v>
+        <v>324.4544067382812</v>
       </c>
       <c r="C123" t="n">
         <v>324.252</v>
@@ -1797,7 +1797,7 @@
         <v>1110.65</v>
       </c>
       <c r="B124" t="n">
-        <v>320.8013916015625</v>
+        <v>319.5039672851562</v>
       </c>
       <c r="C124" t="n">
         <v>321.368</v>
@@ -1808,7 +1808,7 @@
         <v>1110.7</v>
       </c>
       <c r="B125" t="n">
-        <v>318.9620361328125</v>
+        <v>316.5299072265625</v>
       </c>
       <c r="C125" t="n">
         <v>321.421</v>
@@ -1819,7 +1819,7 @@
         <v>1110.75</v>
       </c>
       <c r="B126" t="n">
-        <v>318.2490234375</v>
+        <v>315.1688842773438</v>
       </c>
       <c r="C126" t="n">
         <v>326.175</v>
@@ -1830,7 +1830,7 @@
         <v>1110.8</v>
       </c>
       <c r="B127" t="n">
-        <v>318.7700805664062</v>
+        <v>315.7259521484375</v>
       </c>
       <c r="C127" t="n">
         <v>330.288</v>
@@ -1841,7 +1841,7 @@
         <v>1110.85</v>
       </c>
       <c r="B128" t="n">
-        <v>319.5504455566406</v>
+        <v>316.8380432128906</v>
       </c>
       <c r="C128" t="n">
         <v>336.378</v>
@@ -1852,7 +1852,7 @@
         <v>1110.9</v>
       </c>
       <c r="B129" t="n">
-        <v>321.3952941894531</v>
+        <v>319.403564453125</v>
       </c>
       <c r="C129" t="n">
         <v>337.447</v>
@@ -1863,7 +1863,7 @@
         <v>1110.95</v>
       </c>
       <c r="B130" t="n">
-        <v>323.0675964355469</v>
+        <v>321.7042236328125</v>
       </c>
       <c r="C130" t="n">
         <v>334.455</v>
@@ -1874,7 +1874,7 @@
         <v>1111</v>
       </c>
       <c r="B131" t="n">
-        <v>324.318603515625</v>
+        <v>323.4464111328125</v>
       </c>
       <c r="C131" t="n">
         <v>331.57</v>
@@ -1885,7 +1885,7 @@
         <v>1111.05</v>
       </c>
       <c r="B132" t="n">
-        <v>324.3490600585938</v>
+        <v>323.64794921875</v>
       </c>
       <c r="C132" t="n">
         <v>328.312</v>
@@ -1896,7 +1896,7 @@
         <v>1111.1</v>
       </c>
       <c r="B133" t="n">
-        <v>322.7140808105469</v>
+        <v>321.620849609375</v>
       </c>
       <c r="C133" t="n">
         <v>327.083</v>
@@ -1907,7 +1907,7 @@
         <v>1111.15</v>
       </c>
       <c r="B134" t="n">
-        <v>321.2380981445312</v>
+        <v>319.5464477539062</v>
       </c>
       <c r="C134" t="n">
         <v>325.748</v>
@@ -1918,7 +1918,7 @@
         <v>1111.2</v>
       </c>
       <c r="B135" t="n">
-        <v>320.9322204589844</v>
+        <v>318.8772583007812</v>
       </c>
       <c r="C135" t="n">
         <v>325.267</v>
@@ -1929,7 +1929,7 @@
         <v>1111.25</v>
       </c>
       <c r="B136" t="n">
-        <v>321.4598999023438</v>
+        <v>319.4954528808594</v>
       </c>
       <c r="C136" t="n">
         <v>326.282</v>
@@ -1940,7 +1940,7 @@
         <v>1111.3</v>
       </c>
       <c r="B137" t="n">
-        <v>322.4308471679688</v>
+        <v>320.9126586914062</v>
       </c>
       <c r="C137" t="n">
         <v>327.885</v>
@@ -1951,7 +1951,7 @@
         <v>1111.35</v>
       </c>
       <c r="B138" t="n">
-        <v>323.4181823730469</v>
+        <v>322.3279418945312</v>
       </c>
       <c r="C138" t="n">
         <v>327.885</v>
@@ -1962,7 +1962,7 @@
         <v>1111.4</v>
       </c>
       <c r="B139" t="n">
-        <v>324.3086547851562</v>
+        <v>323.606689453125</v>
       </c>
       <c r="C139" t="n">
         <v>327.511</v>
@@ -1973,7 +1973,7 @@
         <v>1111.45</v>
       </c>
       <c r="B140" t="n">
-        <v>324.6502075195312</v>
+        <v>324.2071838378906</v>
       </c>
       <c r="C140" t="n">
         <v>323.665</v>
@@ -1984,7 +1984,7 @@
         <v>1111.5</v>
       </c>
       <c r="B141" t="n">
-        <v>324.72265625</v>
+        <v>324.3783264160156</v>
       </c>
       <c r="C141" t="n">
         <v>321.848</v>
@@ -1995,7 +1995,7 @@
         <v>1111.55</v>
       </c>
       <c r="B142" t="n">
-        <v>324.8274536132812</v>
+        <v>324.5753173828125</v>
       </c>
       <c r="C142" t="n">
         <v>321.474</v>
@@ -2006,7 +2006,7 @@
         <v>1111.6</v>
       </c>
       <c r="B143" t="n">
-        <v>324.4291687011719</v>
+        <v>324.1027221679688</v>
       </c>
       <c r="C143" t="n">
         <v>322.222</v>
@@ -2017,7 +2017,7 @@
         <v>1111.65</v>
       </c>
       <c r="B144" t="n">
-        <v>324.1596069335938</v>
+        <v>323.6738586425781</v>
       </c>
       <c r="C144" t="n">
         <v>325.534</v>
@@ -2028,7 +2028,7 @@
         <v>1111.7</v>
       </c>
       <c r="B145" t="n">
-        <v>324.8516235351562</v>
+        <v>324.5079345703125</v>
       </c>
       <c r="C145" t="n">
         <v>326.87</v>
@@ -2039,7 +2039,7 @@
         <v>1111.75</v>
       </c>
       <c r="B146" t="n">
-        <v>325.6527709960938</v>
+        <v>325.637939453125</v>
       </c>
       <c r="C146" t="n">
         <v>327.724</v>
@@ -2050,7 +2050,7 @@
         <v>1111.8</v>
       </c>
       <c r="B147" t="n">
-        <v>325.4250183105469</v>
+        <v>325.4319763183594</v>
       </c>
       <c r="C147" t="n">
         <v>327.457</v>
@@ -2061,7 +2061,7 @@
         <v>1111.85</v>
       </c>
       <c r="B148" t="n">
-        <v>324.0195617675781</v>
+        <v>323.5530395507812</v>
       </c>
       <c r="C148" t="n">
         <v>326.549</v>
@@ -2072,7 +2072,7 @@
         <v>1111.9</v>
       </c>
       <c r="B149" t="n">
-        <v>321.1475830078125</v>
+        <v>319.5388793945312</v>
       </c>
       <c r="C149" t="n">
         <v>325.481</v>
@@ -2083,7 +2083,7 @@
         <v>1111.95</v>
       </c>
       <c r="B150" t="n">
-        <v>319.0759887695312</v>
+        <v>316.3715209960938</v>
       </c>
       <c r="C150" t="n">
         <v>321.902</v>
@@ -2094,7 +2094,7 @@
         <v>1112</v>
       </c>
       <c r="B151" t="n">
-        <v>317.3399047851562</v>
+        <v>313.6563415527344</v>
       </c>
       <c r="C151" t="n">
         <v>319.925</v>
@@ -2105,7 +2105,7 @@
         <v>1112.05</v>
       </c>
       <c r="B152" t="n">
-        <v>316.2290344238281</v>
+        <v>311.8378601074219</v>
       </c>
       <c r="C152" t="n">
         <v>315.812</v>
@@ -2116,7 +2116,7 @@
         <v>1112.1</v>
       </c>
       <c r="B153" t="n">
-        <v>315.8620300292969</v>
+        <v>311.1457214355469</v>
       </c>
       <c r="C153" t="n">
         <v>316.079</v>
@@ -2127,7 +2127,7 @@
         <v>1112.15</v>
       </c>
       <c r="B154" t="n">
-        <v>317.4103393554688</v>
+        <v>313.3770141601562</v>
       </c>
       <c r="C154" t="n">
         <v>317.521</v>
@@ -2138,7 +2138,7 @@
         <v>1112.2</v>
       </c>
       <c r="B155" t="n">
-        <v>319.8799743652344</v>
+        <v>317.105224609375</v>
       </c>
       <c r="C155" t="n">
         <v>319.338</v>
@@ -2149,7 +2149,7 @@
         <v>1112.25</v>
       </c>
       <c r="B156" t="n">
-        <v>323.6950073242188</v>
+        <v>322.6298828125</v>
       </c>
       <c r="C156" t="n">
         <v>317.735</v>
@@ -2160,7 +2160,7 @@
         <v>1112.3</v>
       </c>
       <c r="B157" t="n">
-        <v>325.635498046875</v>
+        <v>325.52490234375</v>
       </c>
       <c r="C157" t="n">
         <v>309.936</v>
@@ -2171,7 +2171,7 @@
         <v>1112.35</v>
       </c>
       <c r="B158" t="n">
-        <v>323.5693664550781</v>
+        <v>323.0599060058594</v>
       </c>
       <c r="C158" t="n">
         <v>305.769</v>
@@ -2182,7 +2182,7 @@
         <v>1112.4</v>
       </c>
       <c r="B159" t="n">
-        <v>319.123046875</v>
+        <v>316.9663696289062</v>
       </c>
       <c r="C159" t="n">
         <v>305.342</v>
@@ -2193,7 +2193,7 @@
         <v>1112.45</v>
       </c>
       <c r="B160" t="n">
-        <v>315.9759521484375</v>
+        <v>312.1734924316406</v>
       </c>
       <c r="C160" t="n">
         <v>305.609</v>
@@ -2204,7 +2204,7 @@
         <v>1112.5</v>
       </c>
       <c r="B161" t="n">
-        <v>314.19921875</v>
+        <v>309.2217712402344</v>
       </c>
       <c r="C161" t="n">
         <v>305.983</v>
@@ -2215,7 +2215,7 @@
         <v>1112.55</v>
       </c>
       <c r="B162" t="n">
-        <v>313.48291015625</v>
+        <v>307.9335327148438</v>
       </c>
       <c r="C162" t="n">
         <v>308.066</v>
@@ -2226,7 +2226,7 @@
         <v>1112.6</v>
       </c>
       <c r="B163" t="n">
-        <v>313.4181518554688</v>
+        <v>307.6788940429688</v>
       </c>
       <c r="C163" t="n">
         <v>308.974</v>
@@ -2237,7 +2237,7 @@
         <v>1112.65</v>
       </c>
       <c r="B164" t="n">
-        <v>313.707275390625</v>
+        <v>307.7921142578125</v>
       </c>
       <c r="C164" t="n">
         <v>310.844</v>
@@ -2248,7 +2248,7 @@
         <v>1112.7</v>
       </c>
       <c r="B165" t="n">
-        <v>314.5032958984375</v>
+        <v>308.5706176757812</v>
       </c>
       <c r="C165" t="n">
         <v>311.912</v>
@@ -2259,7 +2259,7 @@
         <v>1112.75</v>
       </c>
       <c r="B166" t="n">
-        <v>315.1271057128906</v>
+        <v>309.3488159179688</v>
       </c>
       <c r="C166" t="n">
         <v>314.37</v>
@@ -2270,7 +2270,7 @@
         <v>1112.8</v>
       </c>
       <c r="B167" t="n">
-        <v>316.7665405273438</v>
+        <v>311.6854248046875</v>
       </c>
       <c r="C167" t="n">
         <v>314.85</v>
@@ -2281,7 +2281,7 @@
         <v>1112.85</v>
       </c>
       <c r="B168" t="n">
-        <v>318.5155029296875</v>
+        <v>314.3126831054688</v>
       </c>
       <c r="C168" t="n">
         <v>315.865</v>
@@ -2292,7 +2292,7 @@
         <v>1112.9</v>
       </c>
       <c r="B169" t="n">
-        <v>320.4626770019531</v>
+        <v>317.5385131835938</v>
       </c>
       <c r="C169" t="n">
         <v>319.551</v>
@@ -2303,7 +2303,7 @@
         <v>1112.95</v>
       </c>
       <c r="B170" t="n">
-        <v>322.3658142089844</v>
+        <v>321.0248718261719</v>
       </c>
       <c r="C170" t="n">
         <v>321.795</v>
@@ -2314,7 +2314,7 @@
         <v>1113</v>
       </c>
       <c r="B171" t="n">
-        <v>324.1362915039062</v>
+        <v>324.7984313964844</v>
       </c>
       <c r="C171" t="n">
         <v>326.229</v>
@@ -2325,7 +2325,7 @@
         <v>1113.05</v>
       </c>
       <c r="B172" t="n">
-        <v>325.5343627929688</v>
+        <v>328.4972229003906</v>
       </c>
       <c r="C172" t="n">
         <v>331.036</v>
@@ -2336,7 +2336,7 @@
         <v>1113.1</v>
       </c>
       <c r="B173" t="n">
-        <v>326.8007202148438</v>
+        <v>331.7189025878906</v>
       </c>
       <c r="C173" t="n">
         <v>333.227</v>
@@ -2347,7 +2347,7 @@
         <v>1113.15</v>
       </c>
       <c r="B174" t="n">
-        <v>327.7385559082031</v>
+        <v>334.1724243164062</v>
       </c>
       <c r="C174" t="n">
         <v>336.271</v>
@@ -2358,7 +2358,7 @@
         <v>1113.2</v>
       </c>
       <c r="B175" t="n">
-        <v>328.0322875976562</v>
+        <v>335.4387817382812</v>
       </c>
       <c r="C175" t="n">
         <v>336.806</v>
@@ -2369,7 +2369,7 @@
         <v>1113.25</v>
       </c>
       <c r="B176" t="n">
-        <v>327.923583984375</v>
+        <v>335.7650756835938</v>
       </c>
       <c r="C176" t="n">
         <v>335.684</v>
@@ -2380,7 +2380,7 @@
         <v>1113.3</v>
       </c>
       <c r="B177" t="n">
-        <v>327.036376953125</v>
+        <v>334.6992797851562</v>
       </c>
       <c r="C177" t="n">
         <v>334.348</v>
@@ -2391,7 +2391,7 @@
         <v>1113.35</v>
       </c>
       <c r="B178" t="n">
-        <v>326.3915405273438</v>
+        <v>333.6654968261719</v>
       </c>
       <c r="C178" t="n">
         <v>333.814</v>
@@ -2402,7 +2402,7 @@
         <v>1113.4</v>
       </c>
       <c r="B179" t="n">
-        <v>325.822265625</v>
+        <v>332.5295715332031</v>
       </c>
       <c r="C179" t="n">
         <v>335.523</v>
@@ -2413,7 +2413,7 @@
         <v>1113.45</v>
       </c>
       <c r="B180" t="n">
-        <v>325.6850280761719</v>
+        <v>331.8609008789062</v>
       </c>
       <c r="C180" t="n">
         <v>340.331</v>
@@ -2424,7 +2424,7 @@
         <v>1113.5</v>
       </c>
       <c r="B181" t="n">
-        <v>326.18603515625</v>
+        <v>332.2192993164062</v>
       </c>
       <c r="C181" t="n">
         <v>341.934</v>
@@ -2435,7 +2435,7 @@
         <v>1113.55</v>
       </c>
       <c r="B182" t="n">
-        <v>326.3759765625</v>
+        <v>332.394287109375</v>
       </c>
       <c r="C182" t="n">
         <v>342.682</v>
@@ -2446,7 +2446,7 @@
         <v>1113.6</v>
       </c>
       <c r="B183" t="n">
-        <v>326.206787109375</v>
+        <v>331.9989929199219</v>
       </c>
       <c r="C183" t="n">
         <v>342.415</v>
@@ -2457,7 +2457,7 @@
         <v>1113.65</v>
       </c>
       <c r="B184" t="n">
-        <v>326.0085754394531</v>
+        <v>331.3255920410156</v>
       </c>
       <c r="C184" t="n">
         <v>340.972</v>
@@ -2468,7 +2468,7 @@
         <v>1113.7</v>
       </c>
       <c r="B185" t="n">
-        <v>326.2603759765625</v>
+        <v>331.2702026367188</v>
       </c>
       <c r="C185" t="n">
         <v>339.37</v>
@@ -2479,7 +2479,7 @@
         <v>1113.75</v>
       </c>
       <c r="B186" t="n">
-        <v>327.1734619140625</v>
+        <v>332.3663940429688</v>
       </c>
       <c r="C186" t="n">
         <v>338.515</v>
@@ -2490,7 +2490,7 @@
         <v>1113.8</v>
       </c>
       <c r="B187" t="n">
-        <v>327.4864501953125</v>
+        <v>332.9125671386719</v>
       </c>
       <c r="C187" t="n">
         <v>335.951</v>
@@ -2501,7 +2501,7 @@
         <v>1113.85</v>
       </c>
       <c r="B188" t="n">
-        <v>327.5476684570312</v>
+        <v>333.2716674804688</v>
       </c>
       <c r="C188" t="n">
         <v>333.814</v>
@@ -2512,7 +2512,7 @@
         <v>1113.9</v>
       </c>
       <c r="B189" t="n">
-        <v>327.7051391601562</v>
+        <v>333.8904113769531</v>
       </c>
       <c r="C189" t="n">
         <v>332.585</v>
@@ -2523,7 +2523,7 @@
         <v>1113.95</v>
       </c>
       <c r="B190" t="n">
-        <v>327.5125732421875</v>
+        <v>334.0099487304688</v>
       </c>
       <c r="C190" t="n">
         <v>330.93</v>
@@ -2534,7 +2534,7 @@
         <v>1114</v>
       </c>
       <c r="B191" t="n">
-        <v>326.8406066894531</v>
+        <v>333.4081115722656</v>
       </c>
       <c r="C191" t="n">
         <v>330.449</v>
@@ -2545,7 +2545,7 @@
         <v>1114.05</v>
       </c>
       <c r="B192" t="n">
-        <v>326.4623413085938</v>
+        <v>333.1564636230469</v>
       </c>
       <c r="C192" t="n">
         <v>328.632</v>
@@ -2556,7 +2556,7 @@
         <v>1114.1</v>
       </c>
       <c r="B193" t="n">
-        <v>325.6140441894531</v>
+        <v>332.24755859375</v>
       </c>
       <c r="C193" t="n">
         <v>327.35</v>
@@ -2567,7 +2567,7 @@
         <v>1114.15</v>
       </c>
       <c r="B194" t="n">
-        <v>324.7044372558594</v>
+        <v>330.8033142089844</v>
       </c>
       <c r="C194" t="n">
         <v>326.122</v>
@@ -2578,7 +2578,7 @@
         <v>1114.2</v>
       </c>
       <c r="B195" t="n">
-        <v>323.6761474609375</v>
+        <v>328.7860717773438</v>
       </c>
       <c r="C195" t="n">
         <v>326.335</v>
@@ -2589,7 +2589,7 @@
         <v>1114.25</v>
       </c>
       <c r="B196" t="n">
-        <v>322.78369140625</v>
+        <v>326.6618347167969</v>
       </c>
       <c r="C196" t="n">
         <v>325.962</v>
@@ -2600,7 +2600,7 @@
         <v>1114.3</v>
       </c>
       <c r="B197" t="n">
-        <v>322.0196533203125</v>
+        <v>324.5877075195312</v>
       </c>
       <c r="C197" t="n">
         <v>326.068</v>
@@ -2611,7 +2611,7 @@
         <v>1114.35</v>
       </c>
       <c r="B198" t="n">
-        <v>321.6905517578125</v>
+        <v>323.08056640625</v>
       </c>
       <c r="C198" t="n">
         <v>327.671</v>
@@ -2622,7 +2622,7 @@
         <v>1114.4</v>
       </c>
       <c r="B199" t="n">
-        <v>322.4064331054688</v>
+        <v>323.0250854492188</v>
       </c>
       <c r="C199" t="n">
         <v>328.846</v>
@@ -2633,7 +2633,7 @@
         <v>1114.45</v>
       </c>
       <c r="B200" t="n">
-        <v>323.2691955566406</v>
+        <v>323.2513122558594</v>
       </c>
       <c r="C200" t="n">
         <v>328.632</v>
@@ -2644,7 +2644,7 @@
         <v>1114.5</v>
       </c>
       <c r="B201" t="n">
-        <v>322.807861328125</v>
+        <v>322.0651550292969</v>
       </c>
       <c r="C201" t="n">
         <v>326.122</v>
@@ -2655,7 +2655,7 @@
         <v>1114.55</v>
       </c>
       <c r="B202" t="n">
-        <v>321.5302429199219</v>
+        <v>319.8406982421875</v>
       </c>
       <c r="C202" t="n">
         <v>324.947</v>
@@ -2666,7 +2666,7 @@
         <v>1114.6</v>
       </c>
       <c r="B203" t="n">
-        <v>321.259033203125</v>
+        <v>318.8822937011719</v>
       </c>
       <c r="C203" t="n">
         <v>322.276</v>
@@ -2677,7 +2677,7 @@
         <v>1114.65</v>
       </c>
       <c r="B204" t="n">
-        <v>321.5925903320312</v>
+        <v>318.9037170410156</v>
       </c>
       <c r="C204" t="n">
         <v>320.887</v>
@@ -2688,7 +2688,7 @@
         <v>1114.7</v>
       </c>
       <c r="B205" t="n">
-        <v>321.6238708496094</v>
+        <v>318.6685791015625</v>
       </c>
       <c r="C205" t="n">
         <v>319.284</v>
@@ -2699,7 +2699,7 @@
         <v>1114.75</v>
       </c>
       <c r="B206" t="n">
-        <v>321.2506408691406</v>
+        <v>318.0260009765625</v>
       </c>
       <c r="C206" t="n">
         <v>318.376</v>
@@ -2710,7 +2710,7 @@
         <v>1114.8</v>
       </c>
       <c r="B207" t="n">
-        <v>320.8089904785156</v>
+        <v>317.4334106445312</v>
       </c>
       <c r="C207" t="n">
         <v>316.934</v>
@@ -2721,7 +2721,7 @@
         <v>1114.85</v>
       </c>
       <c r="B208" t="n">
-        <v>320.521728515625</v>
+        <v>317.1358032226562</v>
       </c>
       <c r="C208" t="n">
         <v>313.835</v>
@@ -2732,7 +2732,7 @@
         <v>1114.9</v>
       </c>
       <c r="B209" t="n">
-        <v>319.8427734375</v>
+        <v>316.3060913085938</v>
       </c>
       <c r="C209" t="n">
         <v>312.66</v>
@@ -2743,7 +2743,7 @@
         <v>1114.95</v>
       </c>
       <c r="B210" t="n">
-        <v>319.3931884765625</v>
+        <v>315.796630859375</v>
       </c>
       <c r="C210" t="n">
         <v>310.47</v>
@@ -2754,7 +2754,7 @@
         <v>1115</v>
       </c>
       <c r="B211" t="n">
-        <v>318.1504516601562</v>
+        <v>314.2236938476562</v>
       </c>
       <c r="C211" t="n">
         <v>309.776</v>
@@ -2765,7 +2765,7 @@
         <v>1115.05</v>
       </c>
       <c r="B212" t="n">
-        <v>316.4332885742188</v>
+        <v>311.9065246582031</v>
       </c>
       <c r="C212" t="n">
         <v>308.921</v>
@@ -2776,7 +2776,7 @@
         <v>1115.1</v>
       </c>
       <c r="B213" t="n">
-        <v>315.4228820800781</v>
+        <v>310.3275146484375</v>
       </c>
       <c r="C213" t="n">
         <v>308.707</v>
@@ -2787,7 +2787,7 @@
         <v>1115.15</v>
       </c>
       <c r="B214" t="n">
-        <v>315.4667358398438</v>
+        <v>310.2846984863281</v>
       </c>
       <c r="C214" t="n">
         <v>309.615</v>
@@ -2798,7 +2798,7 @@
         <v>1115.2</v>
       </c>
       <c r="B215" t="n">
-        <v>315.7865905761719</v>
+        <v>310.87451171875</v>
       </c>
       <c r="C215" t="n">
         <v>310.577</v>
@@ -2809,7 +2809,7 @@
         <v>1115.25</v>
       </c>
       <c r="B216" t="n">
-        <v>315.8784790039062</v>
+        <v>311.0249938964844</v>
       </c>
       <c r="C216" t="n">
         <v>313.088</v>
@@ -2820,7 +2820,7 @@
         <v>1115.3</v>
       </c>
       <c r="B217" t="n">
-        <v>315.6866455078125</v>
+        <v>310.5742492675781</v>
       </c>
       <c r="C217" t="n">
         <v>315.438</v>
@@ -2831,7 +2831,7 @@
         <v>1115.35</v>
       </c>
       <c r="B218" t="n">
-        <v>316.051513671875</v>
+        <v>310.9244995117188</v>
       </c>
       <c r="C218" t="n">
         <v>316.079</v>
@@ -2842,7 +2842,7 @@
         <v>1115.4</v>
       </c>
       <c r="B219" t="n">
-        <v>316.7831726074219</v>
+        <v>311.8875427246094</v>
       </c>
       <c r="C219" t="n">
         <v>315.598</v>
@@ -2853,7 +2853,7 @@
         <v>1115.45</v>
       </c>
       <c r="B220" t="n">
-        <v>317.4942932128906</v>
+        <v>312.8796997070312</v>
       </c>
       <c r="C220" t="n">
         <v>315.118</v>
@@ -2864,7 +2864,7 @@
         <v>1115.5</v>
       </c>
       <c r="B221" t="n">
-        <v>318.09814453125</v>
+        <v>313.562255859375</v>
       </c>
       <c r="C221" t="n">
         <v>315.812</v>
@@ -2875,7 +2875,7 @@
         <v>1115.55</v>
       </c>
       <c r="B222" t="n">
-        <v>318.8406982421875</v>
+        <v>314.2745971679688</v>
       </c>
       <c r="C222" t="n">
         <v>319.07</v>
@@ -2886,7 +2886,7 @@
         <v>1115.6</v>
       </c>
       <c r="B223" t="n">
-        <v>320.3079528808594</v>
+        <v>316.1264953613281</v>
       </c>
       <c r="C223" t="n">
         <v>321.047</v>
@@ -2897,7 +2897,7 @@
         <v>1115.65</v>
       </c>
       <c r="B224" t="n">
-        <v>321.5276794433594</v>
+        <v>317.8491516113281</v>
       </c>
       <c r="C224" t="n">
         <v>322.97</v>
@@ -2908,7 +2908,7 @@
         <v>1115.7</v>
       </c>
       <c r="B225" t="n">
-        <v>322.7248840332031</v>
+        <v>319.6687622070312</v>
       </c>
       <c r="C225" t="n">
         <v>323.237</v>
@@ -2919,7 +2919,7 @@
         <v>1115.75</v>
       </c>
       <c r="B226" t="n">
-        <v>323.4436950683594</v>
+        <v>320.939453125</v>
       </c>
       <c r="C226" t="n">
         <v>323.291</v>
@@ -2930,7 +2930,7 @@
         <v>1115.8</v>
       </c>
       <c r="B227" t="n">
-        <v>323.5781555175781</v>
+        <v>321.4817810058594</v>
       </c>
       <c r="C227" t="n">
         <v>323.451</v>
@@ -2941,7 +2941,7 @@
         <v>1115.85</v>
       </c>
       <c r="B228" t="n">
-        <v>323.6478881835938</v>
+        <v>321.7132263183594</v>
       </c>
       <c r="C228" t="n">
         <v>323.985</v>
@@ -2952,7 +2952,7 @@
         <v>1115.9</v>
       </c>
       <c r="B229" t="n">
-        <v>323.7548522949219</v>
+        <v>321.8701171875</v>
       </c>
       <c r="C229" t="n">
         <v>324.519</v>
@@ -2963,7 +2963,7 @@
         <v>1115.95</v>
       </c>
       <c r="B230" t="n">
-        <v>323.7260131835938</v>
+        <v>322.1363525390625</v>
       </c>
       <c r="C230" t="n">
         <v>325.801</v>
@@ -2974,7 +2974,7 @@
         <v>1116</v>
       </c>
       <c r="B231" t="n">
-        <v>324.0139770507812</v>
+        <v>322.9324340820312</v>
       </c>
       <c r="C231" t="n">
         <v>326.282</v>
@@ -2985,7 +2985,7 @@
         <v>1116.05</v>
       </c>
       <c r="B232" t="n">
-        <v>324.2741394042969</v>
+        <v>323.6183776855469</v>
       </c>
       <c r="C232" t="n">
         <v>327.724</v>
@@ -2996,7 +2996,7 @@
         <v>1116.1</v>
       </c>
       <c r="B233" t="n">
-        <v>323.2628784179688</v>
+        <v>322.4913330078125</v>
       </c>
       <c r="C233" t="n">
         <v>328.152</v>
@@ -3007,7 +3007,7 @@
         <v>1116.15</v>
       </c>
       <c r="B234" t="n">
-        <v>321.9978637695312</v>
+        <v>320.7521362304688</v>
       </c>
       <c r="C234" t="n">
         <v>327.724</v>
@@ -3018,7 +3018,7 @@
         <v>1116.2</v>
       </c>
       <c r="B235" t="n">
-        <v>319.3925170898438</v>
+        <v>316.8928527832031</v>
       </c>
       <c r="C235" t="n">
         <v>325.855</v>
@@ -3029,7 +3029,7 @@
         <v>1116.25</v>
       </c>
       <c r="B236" t="n">
-        <v>317.2874755859375</v>
+        <v>313.5508422851562</v>
       </c>
       <c r="C236" t="n">
         <v>324.412</v>
@@ -3040,7 +3040,7 @@
         <v>1116.3</v>
       </c>
       <c r="B237" t="n">
-        <v>317.3395385742188</v>
+        <v>313.288818359375</v>
       </c>
       <c r="C237" t="n">
         <v>324.252</v>
@@ -3051,7 +3051,7 @@
         <v>1116.35</v>
       </c>
       <c r="B238" t="n">
-        <v>318.2283935546875</v>
+        <v>314.4437255859375</v>
       </c>
       <c r="C238" t="n">
         <v>323.932</v>
@@ -3062,7 +3062,7 @@
         <v>1116.4</v>
       </c>
       <c r="B239" t="n">
-        <v>319.3983764648438</v>
+        <v>316.1973266601562</v>
       </c>
       <c r="C239" t="n">
         <v>323.558</v>
@@ -3073,7 +3073,7 @@
         <v>1116.45</v>
       </c>
       <c r="B240" t="n">
-        <v>320.1439208984375</v>
+        <v>317.4166259765625</v>
       </c>
       <c r="C240" t="n">
         <v>320.78</v>
@@ -3084,7 +3084,7 @@
         <v>1116.5</v>
       </c>
       <c r="B241" t="n">
-        <v>320.2534790039062</v>
+        <v>317.782958984375</v>
       </c>
       <c r="C241" t="n">
         <v>319.071</v>
@@ -3095,7 +3095,7 @@
         <v>1116.55</v>
       </c>
       <c r="B242" t="n">
-        <v>319.8610229492188</v>
+        <v>317.4012145996094</v>
       </c>
       <c r="C242" t="n">
         <v>315.171</v>
@@ -3106,7 +3106,7 @@
         <v>1116.6</v>
       </c>
       <c r="B243" t="n">
-        <v>318.7225341796875</v>
+        <v>315.8572387695312</v>
       </c>
       <c r="C243" t="n">
         <v>313.568</v>
@@ -3117,7 +3117,7 @@
         <v>1116.65</v>
       </c>
       <c r="B244" t="n">
-        <v>317.7484741210938</v>
+        <v>314.5260314941406</v>
       </c>
       <c r="C244" t="n">
         <v>311.592</v>
@@ -3128,7 +3128,7 @@
         <v>1116.7</v>
       </c>
       <c r="B245" t="n">
-        <v>316.7754211425781</v>
+        <v>313.1993103027344</v>
       </c>
       <c r="C245" t="n">
         <v>310.577</v>
@@ -3139,7 +3139,7 @@
         <v>1116.75</v>
       </c>
       <c r="B246" t="n">
-        <v>316.2564697265625</v>
+        <v>312.4268493652344</v>
       </c>
       <c r="C246" t="n">
         <v>310.203</v>
@@ -3150,7 +3150,7 @@
         <v>1116.8</v>
       </c>
       <c r="B247" t="n">
-        <v>316.5612182617188</v>
+        <v>312.7676391601562</v>
       </c>
       <c r="C247" t="n">
         <v>310.63</v>
@@ -3161,7 +3161,7 @@
         <v>1116.85</v>
       </c>
       <c r="B248" t="n">
-        <v>316.9521484375</v>
+        <v>313.2337036132812</v>
       </c>
       <c r="C248" t="n">
         <v>310.844</v>
@@ -3172,7 +3172,7 @@
         <v>1116.9</v>
       </c>
       <c r="B249" t="n">
-        <v>316.8443603515625</v>
+        <v>313.0526123046875</v>
       </c>
       <c r="C249" t="n">
         <v>311.592</v>
@@ -3183,7 +3183,7 @@
         <v>1116.95</v>
       </c>
       <c r="B250" t="n">
-        <v>316.4059448242188</v>
+        <v>312.3876342773438</v>
       </c>
       <c r="C250" t="n">
         <v>312.447</v>
@@ -3194,7 +3194,7 @@
         <v>1117</v>
       </c>
       <c r="B251" t="n">
-        <v>315.7278137207031</v>
+        <v>311.2355041503906</v>
       </c>
       <c r="C251" t="n">
         <v>313.301</v>
@@ -3205,7 +3205,7 @@
         <v>1117.05</v>
       </c>
       <c r="B252" t="n">
-        <v>315.3063659667969</v>
+        <v>310.3252868652344</v>
       </c>
       <c r="C252" t="n">
         <v>314.744</v>
@@ -3216,7 +3216,7 @@
         <v>1117.1</v>
       </c>
       <c r="B253" t="n">
-        <v>316.1473083496094</v>
+        <v>311.2086791992188</v>
       </c>
       <c r="C253" t="n">
         <v>315.972</v>
@@ -3227,7 +3227,7 @@
         <v>1117.15</v>
       </c>
       <c r="B254" t="n">
-        <v>317.1539916992188</v>
+        <v>312.3604736328125</v>
       </c>
       <c r="C254" t="n">
         <v>318.964</v>
@@ -3238,7 +3238,7 @@
         <v>1117.2</v>
       </c>
       <c r="B255" t="n">
-        <v>319.6036376953125</v>
+        <v>315.7026672363281</v>
       </c>
       <c r="C255" t="n">
         <v>320.673</v>
@@ -3249,7 +3249,7 @@
         <v>1117.25</v>
       </c>
       <c r="B256" t="n">
-        <v>321.3616333007812</v>
+        <v>318.2031860351562</v>
       </c>
       <c r="C256" t="n">
         <v>323.558</v>
@@ -3260,7 +3260,7 @@
         <v>1117.3</v>
       </c>
       <c r="B257" t="n">
-        <v>322.9154357910156</v>
+        <v>320.5687866210938</v>
       </c>
       <c r="C257" t="n">
         <v>324.733</v>
@@ -3271,7 +3271,7 @@
         <v>1117.35</v>
       </c>
       <c r="B258" t="n">
-        <v>323.7451782226562</v>
+        <v>322.1415710449219</v>
       </c>
       <c r="C258" t="n">
         <v>326.282</v>
@@ -3282,7 +3282,7 @@
         <v>1117.4</v>
       </c>
       <c r="B259" t="n">
-        <v>323.9359436035156</v>
+        <v>322.8737182617188</v>
       </c>
       <c r="C259" t="n">
         <v>327.137</v>
@@ -3293,7 +3293,7 @@
         <v>1117.45</v>
       </c>
       <c r="B260" t="n">
-        <v>324.0948181152344</v>
+        <v>323.4378967285156</v>
       </c>
       <c r="C260" t="n">
         <v>326.549</v>
@@ -3304,7 +3304,7 @@
         <v>1117.5</v>
       </c>
       <c r="B261" t="n">
-        <v>323.2972717285156</v>
+        <v>322.541015625</v>
       </c>
       <c r="C261" t="n">
         <v>325.855</v>
@@ -3315,7 +3315,7 @@
         <v>1117.55</v>
       </c>
       <c r="B262" t="n">
-        <v>322.1161499023438</v>
+        <v>320.7285766601562</v>
       </c>
       <c r="C262" t="n">
         <v>326.709</v>
@@ -3326,7 +3326,7 @@
         <v>1117.6</v>
       </c>
       <c r="B263" t="n">
-        <v>320.6039733886719</v>
+        <v>318.1039428710938</v>
       </c>
       <c r="C263" t="n">
         <v>327.991</v>
@@ -3337,7 +3337,7 @@
         <v>1117.65</v>
       </c>
       <c r="B264" t="n">
-        <v>320.194091796875</v>
+        <v>316.9607543945312</v>
       </c>
       <c r="C264" t="n">
         <v>331.677</v>
@@ -3348,7 +3348,7 @@
         <v>1117.7</v>
       </c>
       <c r="B265" t="n">
-        <v>321.1975708007812</v>
+        <v>318.0942077636719</v>
       </c>
       <c r="C265" t="n">
         <v>332.959</v>
@@ -3359,7 +3359,7 @@
         <v>1117.75</v>
       </c>
       <c r="B266" t="n">
-        <v>321.73681640625</v>
+        <v>318.8835754394531</v>
       </c>
       <c r="C266" t="n">
         <v>333.494</v>
@@ -3370,7 +3370,7 @@
         <v>1117.8</v>
       </c>
       <c r="B267" t="n">
-        <v>322.0414428710938</v>
+        <v>319.3294982910156</v>
       </c>
       <c r="C267" t="n">
         <v>330.983</v>
@@ -3381,7 +3381,7 @@
         <v>1117.85</v>
       </c>
       <c r="B268" t="n">
-        <v>322.1838684082031</v>
+        <v>319.5151062011719</v>
       </c>
       <c r="C268" t="n">
         <v>329.487</v>
@@ -3392,7 +3392,7 @@
         <v>1117.9</v>
       </c>
       <c r="B269" t="n">
-        <v>322.0733642578125</v>
+        <v>319.4528198242188</v>
       </c>
       <c r="C269" t="n">
         <v>328.419</v>
@@ -3403,7 +3403,7 @@
         <v>1117.95</v>
       </c>
       <c r="B270" t="n">
-        <v>321.7557678222656</v>
+        <v>319.1661376953125</v>
       </c>
       <c r="C270" t="n">
         <v>327.724</v>
@@ -3414,7 +3414,7 @@
         <v>1118</v>
       </c>
       <c r="B271" t="n">
-        <v>321.4138793945312</v>
+        <v>318.8683776855469</v>
       </c>
       <c r="C271" t="n">
         <v>327.137</v>
@@ -3425,7 +3425,7 @@
         <v>1118.05</v>
       </c>
       <c r="B272" t="n">
-        <v>321.0232849121094</v>
+        <v>318.5696411132812</v>
       </c>
       <c r="C272" t="n">
         <v>326.923</v>
@@ -3436,7 +3436,7 @@
         <v>1118.1</v>
       </c>
       <c r="B273" t="n">
-        <v>319.9928588867188</v>
+        <v>317.3432922363281</v>
       </c>
       <c r="C273" t="n">
         <v>327.618</v>
@@ -3447,7 +3447,7 @@
         <v>1118.15</v>
       </c>
       <c r="B274" t="n">
-        <v>319.25537109375</v>
+        <v>316.37841796875</v>
       </c>
       <c r="C274" t="n">
         <v>329.487</v>
@@ -3458,7 +3458,7 @@
         <v>1118.2</v>
       </c>
       <c r="B275" t="n">
-        <v>319.3084411621094</v>
+        <v>316.5487060546875</v>
       </c>
       <c r="C275" t="n">
         <v>329.701</v>
@@ -3469,7 +3469,7 @@
         <v>1118.25</v>
       </c>
       <c r="B276" t="n">
-        <v>319.4928283691406</v>
+        <v>316.962646484375</v>
       </c>
       <c r="C276" t="n">
         <v>327.671</v>
@@ -3480,7 +3480,7 @@
         <v>1118.3</v>
       </c>
       <c r="B277" t="n">
-        <v>319.3266296386719</v>
+        <v>316.8415222167969</v>
       </c>
       <c r="C277" t="n">
         <v>326.335</v>
@@ -3491,7 +3491,7 @@
         <v>1118.35</v>
       </c>
       <c r="B278" t="n">
-        <v>319.1577453613281</v>
+        <v>316.661376953125</v>
       </c>
       <c r="C278" t="n">
         <v>324.199</v>
@@ -3502,7 +3502,7 @@
         <v>1118.4</v>
       </c>
       <c r="B279" t="n">
-        <v>318.9691162109375</v>
+        <v>316.4754943847656</v>
       </c>
       <c r="C279" t="n">
         <v>324.306</v>
@@ -3513,7 +3513,7 @@
         <v>1118.45</v>
       </c>
       <c r="B280" t="n">
-        <v>318.75927734375</v>
+        <v>316.2795715332031</v>
       </c>
       <c r="C280" t="n">
         <v>325.855</v>
@@ -3524,7 +3524,7 @@
         <v>1118.5</v>
       </c>
       <c r="B281" t="n">
-        <v>318.9488830566406</v>
+        <v>316.6021728515625</v>
       </c>
       <c r="C281" t="n">
         <v>327.457</v>
@@ -3535,7 +3535,7 @@
         <v>1118.55</v>
       </c>
       <c r="B282" t="n">
-        <v>319.2534484863281</v>
+        <v>317.0474853515625</v>
       </c>
       <c r="C282" t="n">
         <v>331.197</v>
@@ -3546,7 +3546,7 @@
         <v>1118.6</v>
       </c>
       <c r="B283" t="n">
-        <v>319.5780334472656</v>
+        <v>317.49072265625</v>
       </c>
       <c r="C283" t="n">
         <v>332.746</v>
@@ -3557,7 +3557,7 @@
         <v>1118.65</v>
       </c>
       <c r="B284" t="n">
-        <v>320.2968139648438</v>
+        <v>318.5086059570312</v>
       </c>
       <c r="C284" t="n">
         <v>333.44</v>
@@ -3568,7 +3568,7 @@
         <v>1118.7</v>
       </c>
       <c r="B285" t="n">
-        <v>321.1771850585938</v>
+        <v>319.7780151367188</v>
       </c>
       <c r="C285" t="n">
         <v>334.776</v>
@@ -3579,7 +3579,7 @@
         <v>1118.75</v>
       </c>
       <c r="B286" t="n">
-        <v>322.82373046875</v>
+        <v>322.0335388183594</v>
       </c>
       <c r="C286" t="n">
         <v>333.974</v>
@@ -3590,7 +3590,7 @@
         <v>1118.8</v>
       </c>
       <c r="B287" t="n">
-        <v>324.6164245605469</v>
+        <v>324.4391174316406</v>
       </c>
       <c r="C287" t="n">
         <v>333.227</v>
@@ -3601,7 +3601,7 @@
         <v>1118.85</v>
       </c>
       <c r="B288" t="n">
-        <v>325.8598022460938</v>
+        <v>326.12744140625</v>
       </c>
       <c r="C288" t="n">
         <v>330.342</v>
@@ -3612,7 +3612,7 @@
         <v>1118.9</v>
       </c>
       <c r="B289" t="n">
-        <v>326.3773193359375</v>
+        <v>326.9133605957031</v>
       </c>
       <c r="C289" t="n">
         <v>328.579</v>
@@ -3623,7 +3623,7 @@
         <v>1118.95</v>
       </c>
       <c r="B290" t="n">
-        <v>326.0563659667969</v>
+        <v>326.6144104003906</v>
       </c>
       <c r="C290" t="n">
         <v>325.694</v>
@@ -3634,7 +3634,7 @@
         <v>1119</v>
       </c>
       <c r="B291" t="n">
-        <v>324.2898254394531</v>
+        <v>324.4617919921875</v>
       </c>
       <c r="C291" t="n">
         <v>325.16</v>
@@ -3645,7 +3645,7 @@
         <v>1119.05</v>
       </c>
       <c r="B292" t="n">
-        <v>322.604736328125</v>
+        <v>322.2750854492188</v>
       </c>
       <c r="C292" t="n">
         <v>327.564</v>
@@ -3656,7 +3656,7 @@
         <v>1119.1</v>
       </c>
       <c r="B293" t="n">
-        <v>321.3949584960938</v>
+        <v>320.59521484375</v>
       </c>
       <c r="C293" t="n">
         <v>328.686</v>
@@ -3667,7 +3667,7 @@
         <v>1119.15</v>
       </c>
       <c r="B294" t="n">
-        <v>321.1072387695312</v>
+        <v>320.111328125</v>
       </c>
       <c r="C294" t="n">
         <v>328.045</v>
@@ -3678,7 +3678,7 @@
         <v>1119.2</v>
       </c>
       <c r="B295" t="n">
-        <v>321.2449951171875</v>
+        <v>320.2872009277344</v>
       </c>
       <c r="C295" t="n">
         <v>326.977</v>
@@ -3689,7 +3689,7 @@
         <v>1119.25</v>
       </c>
       <c r="B296" t="n">
-        <v>320.9502868652344</v>
+        <v>319.9688110351562</v>
       </c>
       <c r="C296" t="n">
         <v>323.558</v>
@@ -3700,7 +3700,7 @@
         <v>1119.3</v>
       </c>
       <c r="B297" t="n">
-        <v>319.904052734375</v>
+        <v>318.5691528320312</v>
       </c>
       <c r="C297" t="n">
         <v>322.543</v>
@@ -3711,7 +3711,7 @@
         <v>1119.35</v>
       </c>
       <c r="B298" t="n">
-        <v>319.1666564941406</v>
+        <v>317.4434509277344</v>
       </c>
       <c r="C298" t="n">
         <v>322.222</v>
@@ -3722,7 +3722,7 @@
         <v>1119.4</v>
       </c>
       <c r="B299" t="n">
-        <v>319.508544921875</v>
+        <v>317.7153015136719</v>
       </c>
       <c r="C299" t="n">
         <v>324.252</v>
@@ -3733,7 +3733,7 @@
         <v>1119.45</v>
       </c>
       <c r="B300" t="n">
-        <v>321.2970581054688</v>
+        <v>320.0244750976562</v>
       </c>
       <c r="C300" t="n">
         <v>325.267</v>
@@ -3744,7 +3744,7 @@
         <v>1119.5</v>
       </c>
       <c r="B301" t="n">
-        <v>321.8235473632812</v>
+        <v>320.9400634765625</v>
       </c>
       <c r="C301" t="n">
         <v>325.481</v>
@@ -3755,7 +3755,7 @@
         <v>1119.55</v>
       </c>
       <c r="B302" t="n">
-        <v>321.4844360351562</v>
+        <v>320.6367797851562</v>
       </c>
       <c r="C302" t="n">
         <v>327.938</v>
@@ -3766,7 +3766,7 @@
         <v>1119.6</v>
       </c>
       <c r="B303" t="n">
-        <v>320.6402893066406</v>
+        <v>319.4570617675781</v>
       </c>
       <c r="C303" t="n">
         <v>329.487</v>
@@ -3777,7 +3777,7 @@
         <v>1119.65</v>
       </c>
       <c r="B304" t="n">
-        <v>320.0701904296875</v>
+        <v>318.6566772460938</v>
       </c>
       <c r="C304" t="n">
         <v>331.143</v>
@@ -3788,7 +3788,7 @@
         <v>1119.7</v>
       </c>
       <c r="B305" t="n">
-        <v>320.177734375</v>
+        <v>318.8497314453125</v>
       </c>
       <c r="C305" t="n">
         <v>331.357</v>
@@ -3799,7 +3799,7 @@
         <v>1119.75</v>
       </c>
       <c r="B306" t="n">
-        <v>320.3400573730469</v>
+        <v>319.1347351074219</v>
       </c>
       <c r="C306" t="n">
         <v>329.273</v>
@@ -3810,7 +3810,7 @@
         <v>1119.8</v>
       </c>
       <c r="B307" t="n">
-        <v>321.0399475097656</v>
+        <v>320.0658874511719</v>
       </c>
       <c r="C307" t="n">
         <v>328.579</v>
@@ -3821,7 +3821,7 @@
         <v>1119.85</v>
       </c>
       <c r="B308" t="n">
-        <v>322.2628173828125</v>
+        <v>321.697998046875</v>
       </c>
       <c r="C308" t="n">
         <v>331.41</v>
@@ -3832,7 +3832,7 @@
         <v>1119.9</v>
       </c>
       <c r="B309" t="n">
-        <v>324.214599609375</v>
+        <v>324.3282775878906</v>
       </c>
       <c r="C309" t="n">
         <v>333.494</v>
@@ -3843,7 +3843,7 @@
         <v>1119.95</v>
       </c>
       <c r="B310" t="n">
-        <v>325.5872192382812</v>
+        <v>326.2160034179688</v>
       </c>
       <c r="C310" t="n">
         <v>336.165</v>
@@ -3854,7 +3854,7 @@
         <v>1120</v>
       </c>
       <c r="B311" t="n">
-        <v>326.9273376464844</v>
+        <v>328.0289916992188</v>
       </c>
       <c r="C311" t="n">
         <v>337.233</v>
@@ -3865,7 +3865,7 @@
         <v>1120.05</v>
       </c>
       <c r="B312" t="n">
-        <v>327.8153381347656</v>
+        <v>329.3016357421875</v>
       </c>
       <c r="C312" t="n">
         <v>337.126</v>
@@ -3876,7 +3876,7 @@
         <v>1120.1</v>
       </c>
       <c r="B313" t="n">
-        <v>327.38818359375</v>
+        <v>328.9682922363281</v>
       </c>
       <c r="C313" t="n">
         <v>331.998</v>
@@ -3887,7 +3887,7 @@
         <v>1120.15</v>
       </c>
       <c r="B314" t="n">
-        <v>325.1478271484375</v>
+        <v>326.3352966308594</v>
       </c>
       <c r="C314" t="n">
         <v>329.541</v>
@@ -3898,7 +3898,7 @@
         <v>1120.2</v>
       </c>
       <c r="B315" t="n">
-        <v>323.6444091796875</v>
+        <v>324.3866882324219</v>
       </c>
       <c r="C315" t="n">
         <v>327.19</v>
@@ -3909,7 +3909,7 @@
         <v>1120.25</v>
       </c>
       <c r="B316" t="n">
-        <v>324.3250122070312</v>
+        <v>325.0799255371094</v>
       </c>
       <c r="C316" t="n">
         <v>325.801</v>

--- a/Transformer/result/wlp_transformer/daqingyoutian_A_lstm_BHC_result.xlsx
+++ b/Transformer/result/wlp_transformer/daqingyoutian_A_lstm_BHC_result.xlsx
@@ -455,7 +455,7 @@
         <v>1104.55</v>
       </c>
       <c r="B2" t="n">
-        <v>319.191650390625</v>
+        <v>321.8348388671875</v>
       </c>
       <c r="C2" t="n">
         <v>318.697</v>
@@ -466,7 +466,7 @@
         <v>1104.6</v>
       </c>
       <c r="B3" t="n">
-        <v>317.583251953125</v>
+        <v>321.0869140625</v>
       </c>
       <c r="C3" t="n">
         <v>320.833</v>
@@ -477,7 +477,7 @@
         <v>1104.65</v>
       </c>
       <c r="B4" t="n">
-        <v>316.4968872070312</v>
+        <v>320.8002319335938</v>
       </c>
       <c r="C4" t="n">
         <v>326.923</v>
@@ -488,7 +488,7 @@
         <v>1104.7</v>
       </c>
       <c r="B5" t="n">
-        <v>316.0961303710938</v>
+        <v>320.7493286132812</v>
       </c>
       <c r="C5" t="n">
         <v>330.021</v>
@@ -499,7 +499,7 @@
         <v>1104.75</v>
       </c>
       <c r="B6" t="n">
-        <v>315.3671264648438</v>
+        <v>320.4016723632812</v>
       </c>
       <c r="C6" t="n">
         <v>333.333</v>
@@ -510,7 +510,7 @@
         <v>1104.8</v>
       </c>
       <c r="B7" t="n">
-        <v>315.0361022949219</v>
+        <v>320.2737426757812</v>
       </c>
       <c r="C7" t="n">
         <v>333.868</v>
@@ -521,7 +521,7 @@
         <v>1104.85</v>
       </c>
       <c r="B8" t="n">
-        <v>315.5187377929688</v>
+        <v>320.466552734375</v>
       </c>
       <c r="C8" t="n">
         <v>334.776</v>
@@ -532,7 +532,7 @@
         <v>1104.9</v>
       </c>
       <c r="B9" t="n">
-        <v>316.9970397949219</v>
+        <v>321.08447265625</v>
       </c>
       <c r="C9" t="n">
         <v>335.523</v>
@@ -543,7 +543,7 @@
         <v>1104.95</v>
       </c>
       <c r="B10" t="n">
-        <v>319.0531005859375</v>
+        <v>321.84765625</v>
       </c>
       <c r="C10" t="n">
         <v>337.66</v>
@@ -554,7 +554,7 @@
         <v>1105</v>
       </c>
       <c r="B11" t="n">
-        <v>322.3735961914062</v>
+        <v>323.1007080078125</v>
       </c>
       <c r="C11" t="n">
         <v>339.316</v>
@@ -565,7 +565,7 @@
         <v>1105.05</v>
       </c>
       <c r="B12" t="n">
-        <v>324.995361328125</v>
+        <v>323.3277587890625</v>
       </c>
       <c r="C12" t="n">
         <v>340.171</v>
@@ -576,7 +576,7 @@
         <v>1105.1</v>
       </c>
       <c r="B13" t="n">
-        <v>326.7666625976562</v>
+        <v>322.7094116210938</v>
       </c>
       <c r="C13" t="n">
         <v>341.132</v>
@@ -587,7 +587,7 @@
         <v>1105.15</v>
       </c>
       <c r="B14" t="n">
-        <v>328.7130126953125</v>
+        <v>321.9639587402344</v>
       </c>
       <c r="C14" t="n">
         <v>343.59</v>
@@ -598,7 +598,7 @@
         <v>1105.2</v>
       </c>
       <c r="B15" t="n">
-        <v>331.1683349609375</v>
+        <v>320.4309692382812</v>
       </c>
       <c r="C15" t="n">
         <v>345.139</v>
@@ -609,7 +609,7 @@
         <v>1105.25</v>
       </c>
       <c r="B16" t="n">
-        <v>334.0853576660156</v>
+        <v>319.9177856445312</v>
       </c>
       <c r="C16" t="n">
         <v>348.611</v>
@@ -620,7 +620,7 @@
         <v>1105.3</v>
       </c>
       <c r="B17" t="n">
-        <v>336.8397521972656</v>
+        <v>319.9142456054688</v>
       </c>
       <c r="C17" t="n">
         <v>350.427</v>
@@ -631,7 +631,7 @@
         <v>1105.35</v>
       </c>
       <c r="B18" t="n">
-        <v>339.3338012695312</v>
+        <v>320.2476806640625</v>
       </c>
       <c r="C18" t="n">
         <v>352.618</v>
@@ -642,7 +642,7 @@
         <v>1105.4</v>
       </c>
       <c r="B19" t="n">
-        <v>342.0313110351562</v>
+        <v>321.048583984375</v>
       </c>
       <c r="C19" t="n">
         <v>353.098</v>
@@ -653,7 +653,7 @@
         <v>1105.45</v>
       </c>
       <c r="B20" t="n">
-        <v>344.6041870117188</v>
+        <v>321.967041015625</v>
       </c>
       <c r="C20" t="n">
         <v>354.167</v>
@@ -664,7 +664,7 @@
         <v>1105.5</v>
       </c>
       <c r="B21" t="n">
-        <v>346.5247192382812</v>
+        <v>322.8482055664062</v>
       </c>
       <c r="C21" t="n">
         <v>355.021</v>
@@ -675,7 +675,7 @@
         <v>1105.55</v>
       </c>
       <c r="B22" t="n">
-        <v>347.7481689453125</v>
+        <v>323.6837463378906</v>
       </c>
       <c r="C22" t="n">
         <v>358.013</v>
@@ -686,7 +686,7 @@
         <v>1105.6</v>
       </c>
       <c r="B23" t="n">
-        <v>349.0496215820312</v>
+        <v>324.8700561523438</v>
       </c>
       <c r="C23" t="n">
         <v>359.882</v>
@@ -697,7 +697,7 @@
         <v>1105.65</v>
       </c>
       <c r="B24" t="n">
-        <v>350.281005859375</v>
+        <v>326.1918334960938</v>
       </c>
       <c r="C24" t="n">
         <v>361.165</v>
@@ -708,7 +708,7 @@
         <v>1105.7</v>
       </c>
       <c r="B25" t="n">
-        <v>351.0454711914062</v>
+        <v>327.3096313476562</v>
       </c>
       <c r="C25" t="n">
         <v>360.363</v>
@@ -719,7 +719,7 @@
         <v>1105.75</v>
       </c>
       <c r="B26" t="n">
-        <v>350.526611328125</v>
+        <v>327.7201232910156</v>
       </c>
       <c r="C26" t="n">
         <v>359.882</v>
@@ -730,7 +730,7 @@
         <v>1105.8</v>
       </c>
       <c r="B27" t="n">
-        <v>348.7844848632812</v>
+        <v>327.5346069335938</v>
       </c>
       <c r="C27" t="n">
         <v>359.348</v>
@@ -741,7 +741,7 @@
         <v>1105.85</v>
       </c>
       <c r="B28" t="n">
-        <v>346.2391967773438</v>
+        <v>326.7338562011719</v>
       </c>
       <c r="C28" t="n">
         <v>358.173</v>
@@ -752,7 +752,7 @@
         <v>1105.9</v>
       </c>
       <c r="B29" t="n">
-        <v>344.6246337890625</v>
+        <v>326.5653686523438</v>
       </c>
       <c r="C29" t="n">
         <v>356.624</v>
@@ -763,7 +763,7 @@
         <v>1105.95</v>
       </c>
       <c r="B30" t="n">
-        <v>344.7192687988281</v>
+        <v>327.50927734375</v>
       </c>
       <c r="C30" t="n">
         <v>352.35</v>
@@ -774,7 +774,7 @@
         <v>1106</v>
       </c>
       <c r="B31" t="n">
-        <v>346.1356506347656</v>
+        <v>329.4235534667969</v>
       </c>
       <c r="C31" t="n">
         <v>349.893</v>
@@ -785,7 +785,7 @@
         <v>1106.05</v>
       </c>
       <c r="B32" t="n">
-        <v>346.1811828613281</v>
+        <v>330.4906005859375</v>
       </c>
       <c r="C32" t="n">
         <v>345.139</v>
@@ -796,7 +796,7 @@
         <v>1106.1</v>
       </c>
       <c r="B33" t="n">
-        <v>345.7268676757812</v>
+        <v>331.1175537109375</v>
       </c>
       <c r="C33" t="n">
         <v>342.949</v>
@@ -807,7 +807,7 @@
         <v>1106.15</v>
       </c>
       <c r="B34" t="n">
-        <v>345.5587158203125</v>
+        <v>331.5983581542969</v>
       </c>
       <c r="C34" t="n">
         <v>338.034</v>
@@ -818,7 +818,7 @@
         <v>1106.2</v>
       </c>
       <c r="B35" t="n">
-        <v>345.3219604492188</v>
+        <v>332.4984130859375</v>
       </c>
       <c r="C35" t="n">
         <v>335.47</v>
@@ -829,7 +829,7 @@
         <v>1106.25</v>
       </c>
       <c r="B36" t="n">
-        <v>345.3731994628906</v>
+        <v>333.6853637695312</v>
       </c>
       <c r="C36" t="n">
         <v>330.502</v>
@@ -840,7 +840,7 @@
         <v>1106.3</v>
       </c>
       <c r="B37" t="n">
-        <v>342.2536926269531</v>
+        <v>332.6862182617188</v>
       </c>
       <c r="C37" t="n">
         <v>328.312</v>
@@ -851,7 +851,7 @@
         <v>1106.35</v>
       </c>
       <c r="B38" t="n">
-        <v>337.2110290527344</v>
+        <v>330.8590393066406</v>
       </c>
       <c r="C38" t="n">
         <v>324.947</v>
@@ -862,7 +862,7 @@
         <v>1106.4</v>
       </c>
       <c r="B39" t="n">
-        <v>331.2883605957031</v>
+        <v>328.3265380859375</v>
       </c>
       <c r="C39" t="n">
         <v>323.878</v>
@@ -873,7 +873,7 @@
         <v>1106.45</v>
       </c>
       <c r="B40" t="n">
-        <v>326.7763061523438</v>
+        <v>326.6683959960938</v>
       </c>
       <c r="C40" t="n">
         <v>321.955</v>
@@ -884,7 +884,7 @@
         <v>1106.5</v>
       </c>
       <c r="B41" t="n">
-        <v>324.5290832519531</v>
+        <v>326.4059753417969</v>
       </c>
       <c r="C41" t="n">
         <v>320.94</v>
@@ -895,7 +895,7 @@
         <v>1106.55</v>
       </c>
       <c r="B42" t="n">
-        <v>323.3039855957031</v>
+        <v>326.462890625</v>
       </c>
       <c r="C42" t="n">
         <v>318.964</v>
@@ -906,7 +906,7 @@
         <v>1106.6</v>
       </c>
       <c r="B43" t="n">
-        <v>322.5607604980469</v>
+        <v>326.461669921875</v>
       </c>
       <c r="C43" t="n">
         <v>315.652</v>
@@ -917,7 +917,7 @@
         <v>1106.65</v>
       </c>
       <c r="B44" t="n">
-        <v>320.4800415039062</v>
+        <v>324.9735412597656</v>
       </c>
       <c r="C44" t="n">
         <v>313.675</v>
@@ -928,7 +928,7 @@
         <v>1106.7</v>
       </c>
       <c r="B45" t="n">
-        <v>317.8247680664062</v>
+        <v>322.8437194824219</v>
       </c>
       <c r="C45" t="n">
         <v>310.791</v>
@@ -939,7 +939,7 @@
         <v>1106.75</v>
       </c>
       <c r="B46" t="n">
-        <v>314.1012573242188</v>
+        <v>319.6162109375</v>
       </c>
       <c r="C46" t="n">
         <v>311.912</v>
@@ -950,7 +950,7 @@
         <v>1106.8</v>
       </c>
       <c r="B47" t="n">
-        <v>312.853271484375</v>
+        <v>318.2298583984375</v>
       </c>
       <c r="C47" t="n">
         <v>313.782</v>
@@ -961,7 +961,7 @@
         <v>1106.85</v>
       </c>
       <c r="B48" t="n">
-        <v>313.485107421875</v>
+        <v>318.3273315429688</v>
       </c>
       <c r="C48" t="n">
         <v>318.964</v>
@@ -972,7 +972,7 @@
         <v>1106.9</v>
       </c>
       <c r="B49" t="n">
-        <v>316.1671752929688</v>
+        <v>320.1483764648438</v>
       </c>
       <c r="C49" t="n">
         <v>320.833</v>
@@ -983,7 +983,7 @@
         <v>1106.95</v>
       </c>
       <c r="B50" t="n">
-        <v>318.0021362304688</v>
+        <v>321.3575439453125</v>
       </c>
       <c r="C50" t="n">
         <v>322.382</v>
@@ -994,7 +994,7 @@
         <v>1107</v>
       </c>
       <c r="B51" t="n">
-        <v>319.2645263671875</v>
+        <v>322.1661987304688</v>
       </c>
       <c r="C51" t="n">
         <v>322.703</v>
@@ -1005,7 +1005,7 @@
         <v>1107.05</v>
       </c>
       <c r="B52" t="n">
-        <v>319.9219360351562</v>
+        <v>322.466064453125</v>
       </c>
       <c r="C52" t="n">
         <v>323.023</v>
@@ -1016,7 +1016,7 @@
         <v>1107.1</v>
       </c>
       <c r="B53" t="n">
-        <v>320.2710876464844</v>
+        <v>322.4463806152344</v>
       </c>
       <c r="C53" t="n">
         <v>323.771</v>
@@ -1027,7 +1027,7 @@
         <v>1107.15</v>
       </c>
       <c r="B54" t="n">
-        <v>320.9349060058594</v>
+        <v>322.6095581054688</v>
       </c>
       <c r="C54" t="n">
         <v>324.733</v>
@@ -1038,7 +1038,7 @@
         <v>1107.2</v>
       </c>
       <c r="B55" t="n">
-        <v>322.0738830566406</v>
+        <v>323.2007446289062</v>
       </c>
       <c r="C55" t="n">
         <v>325.16</v>
@@ -1049,7 +1049,7 @@
         <v>1107.25</v>
       </c>
       <c r="B56" t="n">
-        <v>323.2591552734375</v>
+        <v>323.9637145996094</v>
       </c>
       <c r="C56" t="n">
         <v>327.778</v>
@@ -1060,7 +1060,7 @@
         <v>1107.3</v>
       </c>
       <c r="B57" t="n">
-        <v>324.8267822265625</v>
+        <v>325.1294555664062</v>
       </c>
       <c r="C57" t="n">
         <v>330.502</v>
@@ -1071,7 +1071,7 @@
         <v>1107.35</v>
       </c>
       <c r="B58" t="n">
-        <v>326.1542053222656</v>
+        <v>326.1019897460938</v>
       </c>
       <c r="C58" t="n">
         <v>331.838</v>
@@ -1082,7 +1082,7 @@
         <v>1107.4</v>
       </c>
       <c r="B59" t="n">
-        <v>327.0380249023438</v>
+        <v>326.774169921875</v>
       </c>
       <c r="C59" t="n">
         <v>335.31</v>
@@ -1093,7 +1093,7 @@
         <v>1107.45</v>
       </c>
       <c r="B60" t="n">
-        <v>326.6241760253906</v>
+        <v>326.5536804199219</v>
       </c>
       <c r="C60" t="n">
         <v>339.69</v>
@@ -1104,7 +1104,7 @@
         <v>1107.5</v>
       </c>
       <c r="B61" t="n">
-        <v>325.9384460449219</v>
+        <v>326.2118835449219</v>
       </c>
       <c r="C61" t="n">
         <v>339.904</v>
@@ -1115,7 +1115,7 @@
         <v>1107.55</v>
       </c>
       <c r="B62" t="n">
-        <v>325.6067810058594</v>
+        <v>326.0755004882812</v>
       </c>
       <c r="C62" t="n">
         <v>338.355</v>
@@ -1126,7 +1126,7 @@
         <v>1107.6</v>
       </c>
       <c r="B63" t="n">
-        <v>325.640380859375</v>
+        <v>326.2522583007812</v>
       </c>
       <c r="C63" t="n">
         <v>337.18</v>
@@ -1137,7 +1137,7 @@
         <v>1107.65</v>
       </c>
       <c r="B64" t="n">
-        <v>325.4289855957031</v>
+        <v>326.4464721679688</v>
       </c>
       <c r="C64" t="n">
         <v>336.218</v>
@@ -1148,7 +1148,7 @@
         <v>1107.7</v>
       </c>
       <c r="B65" t="n">
-        <v>324.8418273925781</v>
+        <v>326.4696044921875</v>
       </c>
       <c r="C65" t="n">
         <v>336.378</v>
@@ -1159,7 +1159,7 @@
         <v>1107.75</v>
       </c>
       <c r="B66" t="n">
-        <v>324.6022644042969</v>
+        <v>326.675048828125</v>
       </c>
       <c r="C66" t="n">
         <v>337.019</v>
@@ -1170,7 +1170,7 @@
         <v>1107.8</v>
       </c>
       <c r="B67" t="n">
-        <v>325.2208862304688</v>
+        <v>327.3881530761719</v>
       </c>
       <c r="C67" t="n">
         <v>337.34</v>
@@ -1181,7 +1181,7 @@
         <v>1107.85</v>
       </c>
       <c r="B68" t="n">
-        <v>325.8977966308594</v>
+        <v>328.0407104492188</v>
       </c>
       <c r="C68" t="n">
         <v>337.18</v>
@@ -1192,7 +1192,7 @@
         <v>1107.9</v>
       </c>
       <c r="B69" t="n">
-        <v>325.8986206054688</v>
+        <v>328.1134338378906</v>
       </c>
       <c r="C69" t="n">
         <v>334.882</v>
@@ -1203,7 +1203,7 @@
         <v>1107.95</v>
       </c>
       <c r="B70" t="n">
-        <v>325.700439453125</v>
+        <v>327.967529296875</v>
       </c>
       <c r="C70" t="n">
         <v>329.915</v>
@@ -1214,7 +1214,7 @@
         <v>1108</v>
       </c>
       <c r="B71" t="n">
-        <v>324.6343994140625</v>
+        <v>327.1261901855469</v>
       </c>
       <c r="C71" t="n">
         <v>328.365</v>
@@ -1225,7 +1225,7 @@
         <v>1108.05</v>
       </c>
       <c r="B72" t="n">
-        <v>322.2127380371094</v>
+        <v>325.4035339355469</v>
       </c>
       <c r="C72" t="n">
         <v>325.748</v>
@@ -1236,7 +1236,7 @@
         <v>1108.1</v>
       </c>
       <c r="B73" t="n">
-        <v>319.0228271484375</v>
+        <v>323.2452392578125</v>
       </c>
       <c r="C73" t="n">
         <v>324.145</v>
@@ -1247,7 +1247,7 @@
         <v>1108.15</v>
       </c>
       <c r="B74" t="n">
-        <v>317.0597534179688</v>
+        <v>321.9962158203125</v>
       </c>
       <c r="C74" t="n">
         <v>322.81</v>
@@ -1258,7 +1258,7 @@
         <v>1108.2</v>
       </c>
       <c r="B75" t="n">
-        <v>316.7780456542969</v>
+        <v>321.8735961914062</v>
       </c>
       <c r="C75" t="n">
         <v>322.81</v>
@@ -1269,7 +1269,7 @@
         <v>1108.25</v>
       </c>
       <c r="B76" t="n">
-        <v>317.3160095214844</v>
+        <v>322.2355041503906</v>
       </c>
       <c r="C76" t="n">
         <v>323.344</v>
@@ -1280,7 +1280,7 @@
         <v>1108.3</v>
       </c>
       <c r="B77" t="n">
-        <v>318.505615234375</v>
+        <v>322.9283752441406</v>
       </c>
       <c r="C77" t="n">
         <v>323.13</v>
@@ -1291,7 +1291,7 @@
         <v>1108.35</v>
       </c>
       <c r="B78" t="n">
-        <v>320.0027465820312</v>
+        <v>323.7756042480469</v>
       </c>
       <c r="C78" t="n">
         <v>321.207</v>
@@ -1302,7 +1302,7 @@
         <v>1108.4</v>
       </c>
       <c r="B79" t="n">
-        <v>319.1595153808594</v>
+        <v>323.0939025878906</v>
       </c>
       <c r="C79" t="n">
         <v>321.047</v>
@@ -1313,7 +1313,7 @@
         <v>1108.45</v>
       </c>
       <c r="B80" t="n">
-        <v>317.7131958007812</v>
+        <v>322.2320556640625</v>
       </c>
       <c r="C80" t="n">
         <v>323.344</v>
@@ -1324,7 +1324,7 @@
         <v>1108.5</v>
       </c>
       <c r="B81" t="n">
-        <v>315.5594177246094</v>
+        <v>320.8626098632812</v>
       </c>
       <c r="C81" t="n">
         <v>325.641</v>
@@ -1335,7 +1335,7 @@
         <v>1108.55</v>
       </c>
       <c r="B82" t="n">
-        <v>314.9554443359375</v>
+        <v>320.4933471679688</v>
       </c>
       <c r="C82" t="n">
         <v>332.799</v>
@@ -1346,7 +1346,7 @@
         <v>1108.6</v>
       </c>
       <c r="B83" t="n">
-        <v>317.8396301269531</v>
+        <v>322.358642578125</v>
       </c>
       <c r="C83" t="n">
         <v>335.256</v>
@@ -1357,7 +1357,7 @@
         <v>1108.65</v>
       </c>
       <c r="B84" t="n">
-        <v>320.9277954101562</v>
+        <v>324.1843872070312</v>
       </c>
       <c r="C84" t="n">
         <v>333.654</v>
@@ -1368,7 +1368,7 @@
         <v>1108.7</v>
       </c>
       <c r="B85" t="n">
-        <v>324.0553894042969</v>
+        <v>326.0569763183594</v>
       </c>
       <c r="C85" t="n">
         <v>331.25</v>
@@ -1379,7 +1379,7 @@
         <v>1108.75</v>
       </c>
       <c r="B86" t="n">
-        <v>325.9642944335938</v>
+        <v>327.0762939453125</v>
       </c>
       <c r="C86" t="n">
         <v>330.021</v>
@@ -1390,7 +1390,7 @@
         <v>1108.8</v>
       </c>
       <c r="B87" t="n">
-        <v>326.7991638183594</v>
+        <v>327.4915161132812</v>
       </c>
       <c r="C87" t="n">
         <v>330.342</v>
@@ -1401,7 +1401,7 @@
         <v>1108.85</v>
       </c>
       <c r="B88" t="n">
-        <v>327.85205078125</v>
+        <v>328.2879638671875</v>
       </c>
       <c r="C88" t="n">
         <v>330.235</v>
@@ -1412,7 +1412,7 @@
         <v>1108.9</v>
       </c>
       <c r="B89" t="n">
-        <v>329.1009216308594</v>
+        <v>329.370849609375</v>
       </c>
       <c r="C89" t="n">
         <v>329.327</v>
@@ -1423,7 +1423,7 @@
         <v>1108.95</v>
       </c>
       <c r="B90" t="n">
-        <v>328.8533325195312</v>
+        <v>329.4139099121094</v>
       </c>
       <c r="C90" t="n">
         <v>326.87</v>
@@ -1434,7 +1434,7 @@
         <v>1109</v>
       </c>
       <c r="B91" t="n">
-        <v>326.1907348632812</v>
+        <v>327.7326049804688</v>
       </c>
       <c r="C91" t="n">
         <v>325.214</v>
@@ -1445,7 +1445,7 @@
         <v>1109.05</v>
       </c>
       <c r="B92" t="n">
-        <v>321.5650329589844</v>
+        <v>324.7792663574219</v>
       </c>
       <c r="C92" t="n">
         <v>325.694</v>
@@ -1456,7 +1456,7 @@
         <v>1109.1</v>
       </c>
       <c r="B93" t="n">
-        <v>317.8662109375</v>
+        <v>322.6836853027344</v>
       </c>
       <c r="C93" t="n">
         <v>331.357</v>
@@ -1467,7 +1467,7 @@
         <v>1109.15</v>
       </c>
       <c r="B94" t="n">
-        <v>313.7474975585938</v>
+        <v>320.4463195800781</v>
       </c>
       <c r="C94" t="n">
         <v>338.996</v>
@@ -1478,7 +1478,7 @@
         <v>1109.2</v>
       </c>
       <c r="B95" t="n">
-        <v>315.2447509765625</v>
+        <v>321.8708190917969</v>
       </c>
       <c r="C95" t="n">
         <v>341.613</v>
@@ -1489,7 +1489,7 @@
         <v>1109.25</v>
       </c>
       <c r="B96" t="n">
-        <v>318.84228515625</v>
+        <v>323.9253540039062</v>
       </c>
       <c r="C96" t="n">
         <v>342.682</v>
@@ -1500,7 +1500,7 @@
         <v>1109.3</v>
       </c>
       <c r="B97" t="n">
-        <v>323.3738098144531</v>
+        <v>326.1533813476562</v>
       </c>
       <c r="C97" t="n">
         <v>341.453</v>
@@ -1511,7 +1511,7 @@
         <v>1109.35</v>
       </c>
       <c r="B98" t="n">
-        <v>326.5863037109375</v>
+        <v>327.4158935546875</v>
       </c>
       <c r="C98" t="n">
         <v>335.523</v>
@@ -1522,7 +1522,7 @@
         <v>1109.4</v>
       </c>
       <c r="B99" t="n">
-        <v>329.1178283691406</v>
+        <v>328.46435546875</v>
       </c>
       <c r="C99" t="n">
         <v>333.6</v>
@@ -1533,7 +1533,7 @@
         <v>1109.45</v>
       </c>
       <c r="B100" t="n">
-        <v>330.9385375976562</v>
+        <v>329.2461547851562</v>
       </c>
       <c r="C100" t="n">
         <v>331.731</v>
@@ -1544,7 +1544,7 @@
         <v>1109.5</v>
       </c>
       <c r="B101" t="n">
-        <v>333.2388610839844</v>
+        <v>330.6548156738281</v>
       </c>
       <c r="C101" t="n">
         <v>331.357</v>
@@ -1555,7 +1555,7 @@
         <v>1109.55</v>
       </c>
       <c r="B102" t="n">
-        <v>335.1105346679688</v>
+        <v>331.9769897460938</v>
       </c>
       <c r="C102" t="n">
         <v>328.632</v>
@@ -1566,7 +1566,7 @@
         <v>1109.6</v>
       </c>
       <c r="B103" t="n">
-        <v>335.4976501464844</v>
+        <v>332.4142761230469</v>
       </c>
       <c r="C103" t="n">
         <v>325.748</v>
@@ -1577,7 +1577,7 @@
         <v>1109.65</v>
       </c>
       <c r="B104" t="n">
-        <v>333.4107971191406</v>
+        <v>331.0840759277344</v>
       </c>
       <c r="C104" t="n">
         <v>319.605</v>
@@ -1588,7 +1588,7 @@
         <v>1109.7</v>
       </c>
       <c r="B105" t="n">
-        <v>326.9178771972656</v>
+        <v>326.8801574707031</v>
       </c>
       <c r="C105" t="n">
         <v>316.346</v>
@@ -1599,7 +1599,7 @@
         <v>1109.75</v>
       </c>
       <c r="B106" t="n">
-        <v>321.0672912597656</v>
+        <v>323.7313842773438</v>
       </c>
       <c r="C106" t="n">
         <v>312.286</v>
@@ -1610,7 +1610,7 @@
         <v>1109.8</v>
       </c>
       <c r="B107" t="n">
-        <v>311.8598022460938</v>
+        <v>318.825927734375</v>
       </c>
       <c r="C107" t="n">
         <v>311.378</v>
@@ -1621,7 +1621,7 @@
         <v>1109.85</v>
       </c>
       <c r="B108" t="n">
-        <v>305.9927673339844</v>
+        <v>316.6197509765625</v>
       </c>
       <c r="C108" t="n">
         <v>311.378</v>
@@ -1632,7 +1632,7 @@
         <v>1109.9</v>
       </c>
       <c r="B109" t="n">
-        <v>304.2884521484375</v>
+        <v>316.425537109375</v>
       </c>
       <c r="C109" t="n">
         <v>312.927</v>
@@ -1643,7 +1643,7 @@
         <v>1109.95</v>
       </c>
       <c r="B110" t="n">
-        <v>306.3523864746094</v>
+        <v>317.7440185546875</v>
       </c>
       <c r="C110" t="n">
         <v>314.209</v>
@@ -1654,7 +1654,7 @@
         <v>1110</v>
       </c>
       <c r="B111" t="n">
-        <v>310.2343139648438</v>
+        <v>319.6350402832031</v>
       </c>
       <c r="C111" t="n">
         <v>315.598</v>
@@ -1665,7 +1665,7 @@
         <v>1110.05</v>
       </c>
       <c r="B112" t="n">
-        <v>313.4898681640625</v>
+        <v>320.9004516601562</v>
       </c>
       <c r="C112" t="n">
         <v>318.75</v>
@@ -1676,7 +1676,7 @@
         <v>1110.1</v>
       </c>
       <c r="B113" t="n">
-        <v>318.0343933105469</v>
+        <v>322.9270324707031</v>
       </c>
       <c r="C113" t="n">
         <v>319.551</v>
@@ -1687,7 +1687,7 @@
         <v>1110.15</v>
       </c>
       <c r="B114" t="n">
-        <v>322.6207275390625</v>
+        <v>325.03515625</v>
       </c>
       <c r="C114" t="n">
         <v>323.13</v>
@@ -1698,7 +1698,7 @@
         <v>1110.2</v>
       </c>
       <c r="B115" t="n">
-        <v>325.4497985839844</v>
+        <v>326.4121398925781</v>
       </c>
       <c r="C115" t="n">
         <v>326.656</v>
@@ -1709,7 +1709,7 @@
         <v>1110.25</v>
       </c>
       <c r="B116" t="n">
-        <v>326.0748291015625</v>
+        <v>326.8816528320312</v>
       </c>
       <c r="C116" t="n">
         <v>333.12</v>
@@ -1720,7 +1720,7 @@
         <v>1110.3</v>
       </c>
       <c r="B117" t="n">
-        <v>326.9793701171875</v>
+        <v>327.752685546875</v>
       </c>
       <c r="C117" t="n">
         <v>333.227</v>
@@ -1731,7 +1731,7 @@
         <v>1110.35</v>
       </c>
       <c r="B118" t="n">
-        <v>327.7958984375</v>
+        <v>328.3295288085938</v>
       </c>
       <c r="C118" t="n">
         <v>329.647</v>
@@ -1742,7 +1742,7 @@
         <v>1110.4</v>
       </c>
       <c r="B119" t="n">
-        <v>329.7440185546875</v>
+        <v>329.45166015625</v>
       </c>
       <c r="C119" t="n">
         <v>328.9</v>
@@ -1753,7 +1753,7 @@
         <v>1110.45</v>
       </c>
       <c r="B120" t="n">
-        <v>331.3428955078125</v>
+        <v>330.0511169433594</v>
       </c>
       <c r="C120" t="n">
         <v>329.06</v>
@@ -1764,7 +1764,7 @@
         <v>1110.5</v>
       </c>
       <c r="B121" t="n">
-        <v>331.380126953125</v>
+        <v>329.6329040527344</v>
       </c>
       <c r="C121" t="n">
         <v>327.404</v>
@@ -1775,7 +1775,7 @@
         <v>1110.55</v>
       </c>
       <c r="B122" t="n">
-        <v>328.3171691894531</v>
+        <v>327.4343566894531</v>
       </c>
       <c r="C122" t="n">
         <v>326.656</v>
@@ -1786,7 +1786,7 @@
         <v>1110.6</v>
       </c>
       <c r="B123" t="n">
-        <v>324.4544067382812</v>
+        <v>325.3208618164062</v>
       </c>
       <c r="C123" t="n">
         <v>324.252</v>
@@ -1797,7 +1797,7 @@
         <v>1110.65</v>
       </c>
       <c r="B124" t="n">
-        <v>319.5039672851562</v>
+        <v>322.8023071289062</v>
       </c>
       <c r="C124" t="n">
         <v>321.368</v>
@@ -1808,7 +1808,7 @@
         <v>1110.7</v>
       </c>
       <c r="B125" t="n">
-        <v>316.5299072265625</v>
+        <v>321.7222595214844</v>
       </c>
       <c r="C125" t="n">
         <v>321.421</v>
@@ -1819,7 +1819,7 @@
         <v>1110.75</v>
       </c>
       <c r="B126" t="n">
-        <v>315.1688842773438</v>
+        <v>321.4419555664062</v>
       </c>
       <c r="C126" t="n">
         <v>326.175</v>
@@ -1830,7 +1830,7 @@
         <v>1110.8</v>
       </c>
       <c r="B127" t="n">
-        <v>315.7259521484375</v>
+        <v>322.1365966796875</v>
       </c>
       <c r="C127" t="n">
         <v>330.288</v>
@@ -1841,7 +1841,7 @@
         <v>1110.85</v>
       </c>
       <c r="B128" t="n">
-        <v>316.8380432128906</v>
+        <v>322.9467468261719</v>
       </c>
       <c r="C128" t="n">
         <v>336.378</v>
@@ -1852,7 +1852,7 @@
         <v>1110.9</v>
       </c>
       <c r="B129" t="n">
-        <v>319.403564453125</v>
+        <v>324.5205383300781</v>
       </c>
       <c r="C129" t="n">
         <v>337.447</v>
@@ -1863,7 +1863,7 @@
         <v>1110.95</v>
       </c>
       <c r="B130" t="n">
-        <v>321.7042236328125</v>
+        <v>325.6177978515625</v>
       </c>
       <c r="C130" t="n">
         <v>334.455</v>
@@ -1874,7 +1874,7 @@
         <v>1111</v>
       </c>
       <c r="B131" t="n">
-        <v>323.4464111328125</v>
+        <v>326.2689819335938</v>
       </c>
       <c r="C131" t="n">
         <v>331.57</v>
@@ -1885,7 +1885,7 @@
         <v>1111.05</v>
       </c>
       <c r="B132" t="n">
-        <v>323.64794921875</v>
+        <v>326.0383911132812</v>
       </c>
       <c r="C132" t="n">
         <v>328.312</v>
@@ -1896,7 +1896,7 @@
         <v>1111.1</v>
       </c>
       <c r="B133" t="n">
-        <v>321.620849609375</v>
+        <v>324.6730041503906</v>
       </c>
       <c r="C133" t="n">
         <v>327.083</v>
@@ -1907,7 +1907,7 @@
         <v>1111.15</v>
       </c>
       <c r="B134" t="n">
-        <v>319.5464477539062</v>
+        <v>323.6139526367188</v>
       </c>
       <c r="C134" t="n">
         <v>325.748</v>
@@ -1918,7 +1918,7 @@
         <v>1111.2</v>
       </c>
       <c r="B135" t="n">
-        <v>318.8772583007812</v>
+        <v>323.4795532226562</v>
       </c>
       <c r="C135" t="n">
         <v>325.267</v>
@@ -1929,7 +1929,7 @@
         <v>1111.25</v>
       </c>
       <c r="B136" t="n">
-        <v>319.4954528808594</v>
+        <v>324.0108947753906</v>
       </c>
       <c r="C136" t="n">
         <v>326.282</v>
@@ -1940,7 +1940,7 @@
         <v>1111.3</v>
       </c>
       <c r="B137" t="n">
-        <v>320.9126586914062</v>
+        <v>324.8822631835938</v>
       </c>
       <c r="C137" t="n">
         <v>327.885</v>
@@ -1951,7 +1951,7 @@
         <v>1111.35</v>
       </c>
       <c r="B138" t="n">
-        <v>322.3279418945312</v>
+        <v>325.6553955078125</v>
       </c>
       <c r="C138" t="n">
         <v>327.885</v>
@@ -1962,7 +1962,7 @@
         <v>1111.4</v>
       </c>
       <c r="B139" t="n">
-        <v>323.606689453125</v>
+        <v>326.3877563476562</v>
       </c>
       <c r="C139" t="n">
         <v>327.511</v>
@@ -1973,7 +1973,7 @@
         <v>1111.45</v>
       </c>
       <c r="B140" t="n">
-        <v>324.2071838378906</v>
+        <v>326.7557983398438</v>
       </c>
       <c r="C140" t="n">
         <v>323.665</v>
@@ -1984,7 +1984,7 @@
         <v>1111.5</v>
       </c>
       <c r="B141" t="n">
-        <v>324.3783264160156</v>
+        <v>326.9166564941406</v>
       </c>
       <c r="C141" t="n">
         <v>321.848</v>
@@ -1995,7 +1995,7 @@
         <v>1111.55</v>
       </c>
       <c r="B142" t="n">
-        <v>324.5753173828125</v>
+        <v>327.0658569335938</v>
       </c>
       <c r="C142" t="n">
         <v>321.474</v>
@@ -2006,7 +2006,7 @@
         <v>1111.6</v>
       </c>
       <c r="B143" t="n">
-        <v>324.1027221679688</v>
+        <v>326.7139282226562</v>
       </c>
       <c r="C143" t="n">
         <v>322.222</v>
@@ -2017,7 +2017,7 @@
         <v>1111.65</v>
       </c>
       <c r="B144" t="n">
-        <v>323.6738586425781</v>
+        <v>326.4937438964844</v>
       </c>
       <c r="C144" t="n">
         <v>325.534</v>
@@ -2028,7 +2028,7 @@
         <v>1111.7</v>
       </c>
       <c r="B145" t="n">
-        <v>324.5079345703125</v>
+        <v>327.1376342773438</v>
       </c>
       <c r="C145" t="n">
         <v>326.87</v>
@@ -2039,7 +2039,7 @@
         <v>1111.75</v>
       </c>
       <c r="B146" t="n">
-        <v>325.637939453125</v>
+        <v>327.9335327148438</v>
       </c>
       <c r="C146" t="n">
         <v>327.724</v>
@@ -2050,7 +2050,7 @@
         <v>1111.8</v>
       </c>
       <c r="B147" t="n">
-        <v>325.4319763183594</v>
+        <v>327.8767700195312</v>
       </c>
       <c r="C147" t="n">
         <v>327.457</v>
@@ -2061,7 +2061,7 @@
         <v>1111.85</v>
       </c>
       <c r="B148" t="n">
-        <v>323.5530395507812</v>
+        <v>326.8012390136719</v>
       </c>
       <c r="C148" t="n">
         <v>326.549</v>
@@ -2072,7 +2072,7 @@
         <v>1111.9</v>
       </c>
       <c r="B149" t="n">
-        <v>319.5388793945312</v>
+        <v>324.4796752929688</v>
       </c>
       <c r="C149" t="n">
         <v>325.481</v>
@@ -2083,7 +2083,7 @@
         <v>1111.95</v>
       </c>
       <c r="B150" t="n">
-        <v>316.3715209960938</v>
+        <v>322.9241027832031</v>
       </c>
       <c r="C150" t="n">
         <v>321.902</v>
@@ -2094,7 +2094,7 @@
         <v>1112</v>
       </c>
       <c r="B151" t="n">
-        <v>313.6563415527344</v>
+        <v>321.5747680664062</v>
       </c>
       <c r="C151" t="n">
         <v>319.925</v>
@@ -2105,7 +2105,7 @@
         <v>1112.05</v>
       </c>
       <c r="B152" t="n">
-        <v>311.8378601074219</v>
+        <v>320.6511840820312</v>
       </c>
       <c r="C152" t="n">
         <v>315.812</v>
@@ -2116,7 +2116,7 @@
         <v>1112.1</v>
       </c>
       <c r="B153" t="n">
-        <v>311.1457214355469</v>
+        <v>320.2969055175781</v>
       </c>
       <c r="C153" t="n">
         <v>316.079</v>
@@ -2127,7 +2127,7 @@
         <v>1112.15</v>
       </c>
       <c r="B154" t="n">
-        <v>313.3770141601562</v>
+        <v>321.5884399414062</v>
       </c>
       <c r="C154" t="n">
         <v>317.521</v>
@@ -2138,7 +2138,7 @@
         <v>1112.2</v>
       </c>
       <c r="B155" t="n">
-        <v>317.105224609375</v>
+        <v>323.5760498046875</v>
       </c>
       <c r="C155" t="n">
         <v>319.338</v>
@@ -2149,7 +2149,7 @@
         <v>1112.25</v>
       </c>
       <c r="B156" t="n">
-        <v>322.6298828125</v>
+        <v>326.6644287109375</v>
       </c>
       <c r="C156" t="n">
         <v>317.735</v>
@@ -2160,7 +2160,7 @@
         <v>1112.3</v>
       </c>
       <c r="B157" t="n">
-        <v>325.52490234375</v>
+        <v>327.9404602050781</v>
       </c>
       <c r="C157" t="n">
         <v>309.936</v>
@@ -2171,7 +2171,7 @@
         <v>1112.35</v>
       </c>
       <c r="B158" t="n">
-        <v>323.0599060058594</v>
+        <v>326.0135498046875</v>
       </c>
       <c r="C158" t="n">
         <v>305.769</v>
@@ -2182,7 +2182,7 @@
         <v>1112.4</v>
       </c>
       <c r="B159" t="n">
-        <v>316.9663696289062</v>
+        <v>322.5015258789062</v>
       </c>
       <c r="C159" t="n">
         <v>305.342</v>
@@ -2193,7 +2193,7 @@
         <v>1112.45</v>
       </c>
       <c r="B160" t="n">
-        <v>312.1734924316406</v>
+        <v>320.2966918945312</v>
       </c>
       <c r="C160" t="n">
         <v>305.609</v>
@@ -2204,7 +2204,7 @@
         <v>1112.5</v>
       </c>
       <c r="B161" t="n">
-        <v>309.2217712402344</v>
+        <v>319.116455078125</v>
       </c>
       <c r="C161" t="n">
         <v>305.983</v>
@@ -2215,7 +2215,7 @@
         <v>1112.55</v>
       </c>
       <c r="B162" t="n">
-        <v>307.9335327148438</v>
+        <v>318.7300109863281</v>
       </c>
       <c r="C162" t="n">
         <v>308.066</v>
@@ -2226,7 +2226,7 @@
         <v>1112.6</v>
       </c>
       <c r="B163" t="n">
-        <v>307.6788940429688</v>
+        <v>318.7311401367188</v>
       </c>
       <c r="C163" t="n">
         <v>308.974</v>
@@ -2237,7 +2237,7 @@
         <v>1112.65</v>
       </c>
       <c r="B164" t="n">
-        <v>307.7921142578125</v>
+        <v>318.7740478515625</v>
       </c>
       <c r="C164" t="n">
         <v>310.844</v>
@@ -2248,7 +2248,7 @@
         <v>1112.7</v>
       </c>
       <c r="B165" t="n">
-        <v>308.5706176757812</v>
+        <v>318.6675415039062</v>
       </c>
       <c r="C165" t="n">
         <v>311.912</v>
@@ -2259,7 +2259,7 @@
         <v>1112.75</v>
       </c>
       <c r="B166" t="n">
-        <v>309.3488159179688</v>
+        <v>318.1918640136719</v>
       </c>
       <c r="C166" t="n">
         <v>314.37</v>
@@ -2270,7 +2270,7 @@
         <v>1112.8</v>
       </c>
       <c r="B167" t="n">
-        <v>311.6854248046875</v>
+        <v>318.4270324707031</v>
       </c>
       <c r="C167" t="n">
         <v>314.85</v>
@@ -2281,7 +2281,7 @@
         <v>1112.85</v>
       </c>
       <c r="B168" t="n">
-        <v>314.3126831054688</v>
+        <v>318.5146484375</v>
       </c>
       <c r="C168" t="n">
         <v>315.865</v>
@@ -2292,7 +2292,7 @@
         <v>1112.9</v>
       </c>
       <c r="B169" t="n">
-        <v>317.5385131835938</v>
+        <v>318.7635192871094</v>
       </c>
       <c r="C169" t="n">
         <v>319.551</v>
@@ -2303,7 +2303,7 @@
         <v>1112.95</v>
       </c>
       <c r="B170" t="n">
-        <v>321.0248718261719</v>
+        <v>319.0072631835938</v>
       </c>
       <c r="C170" t="n">
         <v>321.795</v>
@@ -2314,7 +2314,7 @@
         <v>1113</v>
       </c>
       <c r="B171" t="n">
-        <v>324.7984313964844</v>
+        <v>319.0487365722656</v>
       </c>
       <c r="C171" t="n">
         <v>326.229</v>
@@ -2325,7 +2325,7 @@
         <v>1113.05</v>
       </c>
       <c r="B172" t="n">
-        <v>328.4972229003906</v>
+        <v>319.6416625976562</v>
       </c>
       <c r="C172" t="n">
         <v>331.036</v>
@@ -2336,7 +2336,7 @@
         <v>1113.1</v>
       </c>
       <c r="B173" t="n">
-        <v>331.7189025878906</v>
+        <v>320.5025024414062</v>
       </c>
       <c r="C173" t="n">
         <v>333.227</v>
@@ -2347,7 +2347,7 @@
         <v>1113.15</v>
       </c>
       <c r="B174" t="n">
-        <v>334.1724243164062</v>
+        <v>321.251953125</v>
       </c>
       <c r="C174" t="n">
         <v>336.271</v>
@@ -2358,7 +2358,7 @@
         <v>1113.2</v>
       </c>
       <c r="B175" t="n">
-        <v>335.4387817382812</v>
+        <v>321.6019897460938</v>
       </c>
       <c r="C175" t="n">
         <v>336.806</v>
@@ -2369,7 +2369,7 @@
         <v>1113.25</v>
       </c>
       <c r="B176" t="n">
-        <v>335.7650756835938</v>
+        <v>321.7527465820312</v>
       </c>
       <c r="C176" t="n">
         <v>335.684</v>
@@ -2380,7 +2380,7 @@
         <v>1113.3</v>
       </c>
       <c r="B177" t="n">
-        <v>334.6992797851562</v>
+        <v>321.2510986328125</v>
       </c>
       <c r="C177" t="n">
         <v>334.348</v>
@@ -2391,7 +2391,7 @@
         <v>1113.35</v>
       </c>
       <c r="B178" t="n">
-        <v>333.6654968261719</v>
+        <v>320.9415893554688</v>
       </c>
       <c r="C178" t="n">
         <v>333.814</v>
@@ -2402,7 +2402,7 @@
         <v>1113.4</v>
       </c>
       <c r="B179" t="n">
-        <v>332.5295715332031</v>
+        <v>320.5972900390625</v>
       </c>
       <c r="C179" t="n">
         <v>335.523</v>
@@ -2413,7 +2413,7 @@
         <v>1113.45</v>
       </c>
       <c r="B180" t="n">
-        <v>331.8609008789062</v>
+        <v>320.5046997070312</v>
       </c>
       <c r="C180" t="n">
         <v>340.331</v>
@@ -2424,7 +2424,7 @@
         <v>1113.5</v>
       </c>
       <c r="B181" t="n">
-        <v>332.2192993164062</v>
+        <v>320.9853515625</v>
       </c>
       <c r="C181" t="n">
         <v>341.934</v>
@@ -2435,7 +2435,7 @@
         <v>1113.55</v>
       </c>
       <c r="B182" t="n">
-        <v>332.394287109375</v>
+        <v>321.4117431640625</v>
       </c>
       <c r="C182" t="n">
         <v>342.682</v>
@@ -2446,7 +2446,7 @@
         <v>1113.6</v>
       </c>
       <c r="B183" t="n">
-        <v>331.9989929199219</v>
+        <v>321.6412963867188</v>
       </c>
       <c r="C183" t="n">
         <v>342.415</v>
@@ -2457,7 +2457,7 @@
         <v>1113.65</v>
       </c>
       <c r="B184" t="n">
-        <v>331.3255920410156</v>
+        <v>321.6899108886719</v>
       </c>
       <c r="C184" t="n">
         <v>340.972</v>
@@ -2468,7 +2468,7 @@
         <v>1113.7</v>
       </c>
       <c r="B185" t="n">
-        <v>331.2702026367188</v>
+        <v>321.8130493164062</v>
       </c>
       <c r="C185" t="n">
         <v>339.37</v>
@@ -2479,7 +2479,7 @@
         <v>1113.75</v>
       </c>
       <c r="B186" t="n">
-        <v>332.3663940429688</v>
+        <v>322.2576904296875</v>
       </c>
       <c r="C186" t="n">
         <v>338.515</v>
@@ -2490,7 +2490,7 @@
         <v>1113.8</v>
       </c>
       <c r="B187" t="n">
-        <v>332.9125671386719</v>
+        <v>322.2068786621094</v>
       </c>
       <c r="C187" t="n">
         <v>335.951</v>
@@ -2501,7 +2501,7 @@
         <v>1113.85</v>
       </c>
       <c r="B188" t="n">
-        <v>333.2716674804688</v>
+        <v>322.145751953125</v>
       </c>
       <c r="C188" t="n">
         <v>333.814</v>
@@ -2512,7 +2512,7 @@
         <v>1113.9</v>
       </c>
       <c r="B189" t="n">
-        <v>333.8904113769531</v>
+        <v>322.2760314941406</v>
       </c>
       <c r="C189" t="n">
         <v>332.585</v>
@@ -2523,7 +2523,7 @@
         <v>1113.95</v>
       </c>
       <c r="B190" t="n">
-        <v>334.0099487304688</v>
+        <v>322.1611938476562</v>
       </c>
       <c r="C190" t="n">
         <v>330.93</v>
@@ -2534,7 +2534,7 @@
         <v>1114</v>
       </c>
       <c r="B191" t="n">
-        <v>333.4081115722656</v>
+        <v>321.8214111328125</v>
       </c>
       <c r="C191" t="n">
         <v>330.449</v>
@@ -2545,7 +2545,7 @@
         <v>1114.05</v>
       </c>
       <c r="B192" t="n">
-        <v>333.1564636230469</v>
+        <v>321.809814453125</v>
       </c>
       <c r="C192" t="n">
         <v>328.632</v>
@@ -2556,7 +2556,7 @@
         <v>1114.1</v>
       </c>
       <c r="B193" t="n">
-        <v>332.24755859375</v>
+        <v>321.8319396972656</v>
       </c>
       <c r="C193" t="n">
         <v>327.35</v>
@@ -2567,7 +2567,7 @@
         <v>1114.15</v>
       </c>
       <c r="B194" t="n">
-        <v>330.8033142089844</v>
+        <v>322.0542297363281</v>
       </c>
       <c r="C194" t="n">
         <v>326.122</v>
@@ -2578,7 +2578,7 @@
         <v>1114.2</v>
       </c>
       <c r="B195" t="n">
-        <v>328.7860717773438</v>
+        <v>322.2155151367188</v>
       </c>
       <c r="C195" t="n">
         <v>326.335</v>
@@ -2589,7 +2589,7 @@
         <v>1114.25</v>
       </c>
       <c r="B196" t="n">
-        <v>326.6618347167969</v>
+        <v>322.4494018554688</v>
       </c>
       <c r="C196" t="n">
         <v>325.962</v>
@@ -2600,7 +2600,7 @@
         <v>1114.3</v>
       </c>
       <c r="B197" t="n">
-        <v>324.5877075195312</v>
+        <v>322.7008666992188</v>
       </c>
       <c r="C197" t="n">
         <v>326.068</v>
@@ -2611,7 +2611,7 @@
         <v>1114.35</v>
       </c>
       <c r="B198" t="n">
-        <v>323.08056640625</v>
+        <v>323.2549438476562</v>
       </c>
       <c r="C198" t="n">
         <v>327.671</v>
@@ -2622,7 +2622,7 @@
         <v>1114.4</v>
       </c>
       <c r="B199" t="n">
-        <v>323.0250854492188</v>
+        <v>324.7840576171875</v>
       </c>
       <c r="C199" t="n">
         <v>328.846</v>
@@ -2633,7 +2633,7 @@
         <v>1114.45</v>
       </c>
       <c r="B200" t="n">
-        <v>323.2513122558594</v>
+        <v>325.8470458984375</v>
       </c>
       <c r="C200" t="n">
         <v>328.632</v>
@@ -2644,7 +2644,7 @@
         <v>1114.5</v>
       </c>
       <c r="B201" t="n">
-        <v>322.0651550292969</v>
+        <v>325.5504760742188</v>
       </c>
       <c r="C201" t="n">
         <v>326.122</v>
@@ -2655,7 +2655,7 @@
         <v>1114.55</v>
       </c>
       <c r="B202" t="n">
-        <v>319.8406982421875</v>
+        <v>324.5172729492188</v>
       </c>
       <c r="C202" t="n">
         <v>324.947</v>
@@ -2666,7 +2666,7 @@
         <v>1114.6</v>
       </c>
       <c r="B203" t="n">
-        <v>318.8822937011719</v>
+        <v>324.2397766113281</v>
       </c>
       <c r="C203" t="n">
         <v>322.276</v>
@@ -2677,7 +2677,7 @@
         <v>1114.65</v>
       </c>
       <c r="B204" t="n">
-        <v>318.9037170410156</v>
+        <v>324.2274169921875</v>
       </c>
       <c r="C204" t="n">
         <v>320.887</v>
@@ -2688,7 +2688,7 @@
         <v>1114.7</v>
       </c>
       <c r="B205" t="n">
-        <v>318.6685791015625</v>
+        <v>323.6790161132812</v>
       </c>
       <c r="C205" t="n">
         <v>319.284</v>
@@ -2699,7 +2699,7 @@
         <v>1114.75</v>
       </c>
       <c r="B206" t="n">
-        <v>318.0260009765625</v>
+        <v>322.7570495605469</v>
       </c>
       <c r="C206" t="n">
         <v>318.376</v>
@@ -2710,7 +2710,7 @@
         <v>1114.8</v>
       </c>
       <c r="B207" t="n">
-        <v>317.4334106445312</v>
+        <v>322.0050048828125</v>
       </c>
       <c r="C207" t="n">
         <v>316.934</v>
@@ -2721,7 +2721,7 @@
         <v>1114.85</v>
       </c>
       <c r="B208" t="n">
-        <v>317.1358032226562</v>
+        <v>321.69677734375</v>
       </c>
       <c r="C208" t="n">
         <v>313.835</v>
@@ -2732,7 +2732,7 @@
         <v>1114.9</v>
       </c>
       <c r="B209" t="n">
-        <v>316.3060913085938</v>
+        <v>321.3163757324219</v>
       </c>
       <c r="C209" t="n">
         <v>312.66</v>
@@ -2743,7 +2743,7 @@
         <v>1114.95</v>
       </c>
       <c r="B210" t="n">
-        <v>315.796630859375</v>
+        <v>321.3661499023438</v>
       </c>
       <c r="C210" t="n">
         <v>310.47</v>
@@ -2754,7 +2754,7 @@
         <v>1115</v>
       </c>
       <c r="B211" t="n">
-        <v>314.2236938476562</v>
+        <v>320.8224487304688</v>
       </c>
       <c r="C211" t="n">
         <v>309.776</v>
@@ -2765,7 +2765,7 @@
         <v>1115.05</v>
       </c>
       <c r="B212" t="n">
-        <v>311.9065246582031</v>
+        <v>319.8880615234375</v>
       </c>
       <c r="C212" t="n">
         <v>308.921</v>
@@ -2776,7 +2776,7 @@
         <v>1115.1</v>
       </c>
       <c r="B213" t="n">
-        <v>310.3275146484375</v>
+        <v>319.3284912109375</v>
       </c>
       <c r="C213" t="n">
         <v>308.707</v>
@@ -2787,7 +2787,7 @@
         <v>1115.15</v>
       </c>
       <c r="B214" t="n">
-        <v>310.2846984863281</v>
+        <v>319.4688415527344</v>
       </c>
       <c r="C214" t="n">
         <v>309.615</v>
@@ -2798,7 +2798,7 @@
         <v>1115.2</v>
       </c>
       <c r="B215" t="n">
-        <v>310.87451171875</v>
+        <v>319.8341674804688</v>
       </c>
       <c r="C215" t="n">
         <v>310.577</v>
@@ -2809,7 +2809,7 @@
         <v>1115.25</v>
       </c>
       <c r="B216" t="n">
-        <v>311.0249938964844</v>
+        <v>319.9127197265625</v>
       </c>
       <c r="C216" t="n">
         <v>313.088</v>
@@ -2820,7 +2820,7 @@
         <v>1115.3</v>
       </c>
       <c r="B217" t="n">
-        <v>310.5742492675781</v>
+        <v>319.6415405273438</v>
       </c>
       <c r="C217" t="n">
         <v>315.438</v>
@@ -2831,7 +2831,7 @@
         <v>1115.35</v>
       </c>
       <c r="B218" t="n">
-        <v>310.9244995117188</v>
+        <v>319.9021606445312</v>
       </c>
       <c r="C218" t="n">
         <v>316.079</v>
@@ -2842,7 +2842,7 @@
         <v>1115.4</v>
       </c>
       <c r="B219" t="n">
-        <v>311.8875427246094</v>
+        <v>320.5357055664062</v>
       </c>
       <c r="C219" t="n">
         <v>315.598</v>
@@ -2853,7 +2853,7 @@
         <v>1115.45</v>
       </c>
       <c r="B220" t="n">
-        <v>312.8796997070312</v>
+        <v>321.1331176757812</v>
       </c>
       <c r="C220" t="n">
         <v>315.118</v>
@@ -2864,7 +2864,7 @@
         <v>1115.5</v>
       </c>
       <c r="B221" t="n">
-        <v>313.562255859375</v>
+        <v>321.3905029296875</v>
       </c>
       <c r="C221" t="n">
         <v>315.812</v>
@@ -2875,7 +2875,7 @@
         <v>1115.55</v>
       </c>
       <c r="B222" t="n">
-        <v>314.2745971679688</v>
+        <v>321.4340209960938</v>
       </c>
       <c r="C222" t="n">
         <v>319.07</v>
@@ -2886,7 +2886,7 @@
         <v>1115.6</v>
       </c>
       <c r="B223" t="n">
-        <v>316.1264953613281</v>
+        <v>321.9732055664062</v>
       </c>
       <c r="C223" t="n">
         <v>321.047</v>
@@ -2897,7 +2897,7 @@
         <v>1115.65</v>
       </c>
       <c r="B224" t="n">
-        <v>317.8491516113281</v>
+        <v>322.3361511230469</v>
       </c>
       <c r="C224" t="n">
         <v>322.97</v>
@@ -2908,7 +2908,7 @@
         <v>1115.7</v>
       </c>
       <c r="B225" t="n">
-        <v>319.6687622070312</v>
+        <v>322.8568115234375</v>
       </c>
       <c r="C225" t="n">
         <v>323.237</v>
@@ -2919,7 +2919,7 @@
         <v>1115.75</v>
       </c>
       <c r="B226" t="n">
-        <v>320.939453125</v>
+        <v>323.1439819335938</v>
       </c>
       <c r="C226" t="n">
         <v>323.291</v>
@@ -2930,7 +2930,7 @@
         <v>1115.8</v>
       </c>
       <c r="B227" t="n">
-        <v>321.4817810058594</v>
+        <v>323.147705078125</v>
       </c>
       <c r="C227" t="n">
         <v>323.451</v>
@@ -2941,7 +2941,7 @@
         <v>1115.85</v>
       </c>
       <c r="B228" t="n">
-        <v>321.7132263183594</v>
+        <v>323.0757446289062</v>
       </c>
       <c r="C228" t="n">
         <v>323.985</v>
@@ -2952,7 +2952,7 @@
         <v>1115.9</v>
       </c>
       <c r="B229" t="n">
-        <v>321.8701171875</v>
+        <v>323.0105590820312</v>
       </c>
       <c r="C229" t="n">
         <v>324.519</v>
@@ -2963,7 +2963,7 @@
         <v>1115.95</v>
       </c>
       <c r="B230" t="n">
-        <v>322.1363525390625</v>
+        <v>323.086181640625</v>
       </c>
       <c r="C230" t="n">
         <v>325.801</v>
@@ -2974,7 +2974,7 @@
         <v>1116</v>
       </c>
       <c r="B231" t="n">
-        <v>322.9324340820312</v>
+        <v>323.5220947265625</v>
       </c>
       <c r="C231" t="n">
         <v>326.282</v>
@@ -2985,7 +2985,7 @@
         <v>1116.05</v>
       </c>
       <c r="B232" t="n">
-        <v>323.6183776855469</v>
+        <v>324.004638671875</v>
       </c>
       <c r="C232" t="n">
         <v>327.724</v>
@@ -2996,7 +2996,7 @@
         <v>1116.1</v>
       </c>
       <c r="B233" t="n">
-        <v>322.4913330078125</v>
+        <v>323.6150817871094</v>
       </c>
       <c r="C233" t="n">
         <v>328.152</v>
@@ -3007,7 +3007,7 @@
         <v>1116.15</v>
       </c>
       <c r="B234" t="n">
-        <v>320.7521362304688</v>
+        <v>323.1761474609375</v>
       </c>
       <c r="C234" t="n">
         <v>327.724</v>
@@ -3018,7 +3018,7 @@
         <v>1116.2</v>
       </c>
       <c r="B235" t="n">
-        <v>316.8928527832031</v>
+        <v>321.5543823242188</v>
       </c>
       <c r="C235" t="n">
         <v>325.855</v>
@@ -3029,7 +3029,7 @@
         <v>1116.25</v>
       </c>
       <c r="B236" t="n">
-        <v>313.5508422851562</v>
+        <v>320.3450012207031</v>
       </c>
       <c r="C236" t="n">
         <v>324.412</v>
@@ -3040,7 +3040,7 @@
         <v>1116.3</v>
       </c>
       <c r="B237" t="n">
-        <v>313.288818359375</v>
+        <v>320.7144775390625</v>
       </c>
       <c r="C237" t="n">
         <v>324.252</v>
@@ -3051,7 +3051,7 @@
         <v>1116.35</v>
       </c>
       <c r="B238" t="n">
-        <v>314.4437255859375</v>
+        <v>321.4736938476562</v>
       </c>
       <c r="C238" t="n">
         <v>323.932</v>
@@ -3062,7 +3062,7 @@
         <v>1116.4</v>
       </c>
       <c r="B239" t="n">
-        <v>316.1973266601562</v>
+        <v>322.3494873046875</v>
       </c>
       <c r="C239" t="n">
         <v>323.558</v>
@@ -3073,7 +3073,7 @@
         <v>1116.45</v>
       </c>
       <c r="B240" t="n">
-        <v>317.4166259765625</v>
+        <v>322.7944641113281</v>
       </c>
       <c r="C240" t="n">
         <v>320.78</v>
@@ -3084,7 +3084,7 @@
         <v>1116.5</v>
       </c>
       <c r="B241" t="n">
-        <v>317.782958984375</v>
+        <v>322.7718811035156</v>
       </c>
       <c r="C241" t="n">
         <v>319.071</v>
@@ -3095,7 +3095,7 @@
         <v>1116.55</v>
       </c>
       <c r="B242" t="n">
-        <v>317.4012145996094</v>
+        <v>322.4882507324219</v>
       </c>
       <c r="C242" t="n">
         <v>315.171</v>
@@ -3106,7 +3106,7 @@
         <v>1116.6</v>
       </c>
       <c r="B243" t="n">
-        <v>315.8572387695312</v>
+        <v>321.7256469726562</v>
       </c>
       <c r="C243" t="n">
         <v>313.568</v>
@@ -3117,7 +3117,7 @@
         <v>1116.65</v>
       </c>
       <c r="B244" t="n">
-        <v>314.5260314941406</v>
+        <v>321.3760375976562</v>
       </c>
       <c r="C244" t="n">
         <v>311.592</v>
@@ -3128,7 +3128,7 @@
         <v>1116.7</v>
       </c>
       <c r="B245" t="n">
-        <v>313.1993103027344</v>
+        <v>321.0867919921875</v>
       </c>
       <c r="C245" t="n">
         <v>310.577</v>
@@ -3139,7 +3139,7 @@
         <v>1116.75</v>
       </c>
       <c r="B246" t="n">
-        <v>312.4268493652344</v>
+        <v>320.9736938476562</v>
       </c>
       <c r="C246" t="n">
         <v>310.203</v>
@@ -3150,7 +3150,7 @@
         <v>1116.8</v>
       </c>
       <c r="B247" t="n">
-        <v>312.7676391601562</v>
+        <v>321.2319641113281</v>
       </c>
       <c r="C247" t="n">
         <v>310.63</v>
@@ -3161,7 +3161,7 @@
         <v>1116.85</v>
       </c>
       <c r="B248" t="n">
-        <v>313.2337036132812</v>
+        <v>321.2595825195312</v>
       </c>
       <c r="C248" t="n">
         <v>310.844</v>
@@ -3172,7 +3172,7 @@
         <v>1116.9</v>
       </c>
       <c r="B249" t="n">
-        <v>313.0526123046875</v>
+        <v>320.7628784179688</v>
       </c>
       <c r="C249" t="n">
         <v>311.592</v>
@@ -3183,7 +3183,7 @@
         <v>1116.95</v>
       </c>
       <c r="B250" t="n">
-        <v>312.3876342773438</v>
+        <v>320.06787109375</v>
       </c>
       <c r="C250" t="n">
         <v>312.447</v>
@@ -3194,7 +3194,7 @@
         <v>1117</v>
       </c>
       <c r="B251" t="n">
-        <v>311.2355041503906</v>
+        <v>319.2771301269531</v>
       </c>
       <c r="C251" t="n">
         <v>313.301</v>
@@ -3205,7 +3205,7 @@
         <v>1117.05</v>
       </c>
       <c r="B252" t="n">
-        <v>310.3252868652344</v>
+        <v>318.7910766601562</v>
       </c>
       <c r="C252" t="n">
         <v>314.744</v>
@@ -3216,7 +3216,7 @@
         <v>1117.1</v>
       </c>
       <c r="B253" t="n">
-        <v>311.2086791992188</v>
+        <v>319.3536682128906</v>
       </c>
       <c r="C253" t="n">
         <v>315.972</v>
@@ -3227,7 +3227,7 @@
         <v>1117.15</v>
       </c>
       <c r="B254" t="n">
-        <v>312.3604736328125</v>
+        <v>319.8424682617188</v>
       </c>
       <c r="C254" t="n">
         <v>318.964</v>
@@ -3238,7 +3238,7 @@
         <v>1117.2</v>
       </c>
       <c r="B255" t="n">
-        <v>315.7026672363281</v>
+        <v>321.434814453125</v>
       </c>
       <c r="C255" t="n">
         <v>320.673</v>
@@ -3249,7 +3249,7 @@
         <v>1117.25</v>
       </c>
       <c r="B256" t="n">
-        <v>318.2031860351562</v>
+        <v>322.2925415039062</v>
       </c>
       <c r="C256" t="n">
         <v>323.558</v>
@@ -3260,7 +3260,7 @@
         <v>1117.3</v>
       </c>
       <c r="B257" t="n">
-        <v>320.5687866210938</v>
+        <v>323.1317749023438</v>
       </c>
       <c r="C257" t="n">
         <v>324.733</v>
@@ -3271,7 +3271,7 @@
         <v>1117.35</v>
       </c>
       <c r="B258" t="n">
-        <v>322.1415710449219</v>
+        <v>323.5928344726562</v>
       </c>
       <c r="C258" t="n">
         <v>326.282</v>
@@ -3282,7 +3282,7 @@
         <v>1117.4</v>
       </c>
       <c r="B259" t="n">
-        <v>322.8737182617188</v>
+        <v>323.7890625</v>
       </c>
       <c r="C259" t="n">
         <v>327.137</v>
@@ -3293,7 +3293,7 @@
         <v>1117.45</v>
       </c>
       <c r="B260" t="n">
-        <v>323.4378967285156</v>
+        <v>324.1922302246094</v>
       </c>
       <c r="C260" t="n">
         <v>326.549</v>
@@ -3304,7 +3304,7 @@
         <v>1117.5</v>
       </c>
       <c r="B261" t="n">
-        <v>322.541015625</v>
+        <v>323.9552917480469</v>
       </c>
       <c r="C261" t="n">
         <v>325.855</v>
@@ -3315,7 +3315,7 @@
         <v>1117.55</v>
       </c>
       <c r="B262" t="n">
-        <v>320.7285766601562</v>
+        <v>323.3609008789062</v>
       </c>
       <c r="C262" t="n">
         <v>326.709</v>
@@ -3326,7 +3326,7 @@
         <v>1117.6</v>
       </c>
       <c r="B263" t="n">
-        <v>318.1039428710938</v>
+        <v>322.1068725585938</v>
       </c>
       <c r="C263" t="n">
         <v>327.991</v>
@@ -3337,7 +3337,7 @@
         <v>1117.65</v>
       </c>
       <c r="B264" t="n">
-        <v>316.9607543945312</v>
+        <v>321.4833374023438</v>
       </c>
       <c r="C264" t="n">
         <v>331.677</v>
@@ -3348,7 +3348,7 @@
         <v>1117.7</v>
       </c>
       <c r="B265" t="n">
-        <v>318.0942077636719</v>
+        <v>322.0965576171875</v>
       </c>
       <c r="C265" t="n">
         <v>332.959</v>
@@ -3359,7 +3359,7 @@
         <v>1117.75</v>
       </c>
       <c r="B266" t="n">
-        <v>318.8835754394531</v>
+        <v>322.5790100097656</v>
       </c>
       <c r="C266" t="n">
         <v>333.494</v>
@@ -3370,7 +3370,7 @@
         <v>1117.8</v>
       </c>
       <c r="B267" t="n">
-        <v>319.3294982910156</v>
+        <v>322.9694213867188</v>
       </c>
       <c r="C267" t="n">
         <v>330.983</v>
@@ -3381,7 +3381,7 @@
         <v>1117.85</v>
       </c>
       <c r="B268" t="n">
-        <v>319.5151062011719</v>
+        <v>323.1088562011719</v>
       </c>
       <c r="C268" t="n">
         <v>329.487</v>
@@ -3392,7 +3392,7 @@
         <v>1117.9</v>
       </c>
       <c r="B269" t="n">
-        <v>319.4528198242188</v>
+        <v>322.996826171875</v>
       </c>
       <c r="C269" t="n">
         <v>328.419</v>
@@ -3403,7 +3403,7 @@
         <v>1117.95</v>
       </c>
       <c r="B270" t="n">
-        <v>319.1661376953125</v>
+        <v>322.7478637695312</v>
       </c>
       <c r="C270" t="n">
         <v>327.724</v>
@@ -3414,7 +3414,7 @@
         <v>1118</v>
       </c>
       <c r="B271" t="n">
-        <v>318.8683776855469</v>
+        <v>322.6310119628906</v>
       </c>
       <c r="C271" t="n">
         <v>327.137</v>
@@ -3425,7 +3425,7 @@
         <v>1118.05</v>
       </c>
       <c r="B272" t="n">
-        <v>318.5696411132812</v>
+        <v>322.7289733886719</v>
       </c>
       <c r="C272" t="n">
         <v>326.923</v>
@@ -3436,7 +3436,7 @@
         <v>1118.1</v>
       </c>
       <c r="B273" t="n">
-        <v>317.3432922363281</v>
+        <v>322.45166015625</v>
       </c>
       <c r="C273" t="n">
         <v>327.618</v>
@@ -3447,7 +3447,7 @@
         <v>1118.15</v>
       </c>
       <c r="B274" t="n">
-        <v>316.37841796875</v>
+        <v>322.450439453125</v>
       </c>
       <c r="C274" t="n">
         <v>329.487</v>
@@ -3458,7 +3458,7 @@
         <v>1118.2</v>
       </c>
       <c r="B275" t="n">
-        <v>316.5487060546875</v>
+        <v>323.0469360351562</v>
       </c>
       <c r="C275" t="n">
         <v>329.701</v>
@@ -3469,7 +3469,7 @@
         <v>1118.25</v>
       </c>
       <c r="B276" t="n">
-        <v>316.962646484375</v>
+        <v>323.6023559570312</v>
       </c>
       <c r="C276" t="n">
         <v>327.671</v>
@@ -3480,7 +3480,7 @@
         <v>1118.3</v>
       </c>
       <c r="B277" t="n">
-        <v>316.8415222167969</v>
+        <v>323.7088623046875</v>
       </c>
       <c r="C277" t="n">
         <v>326.335</v>
@@ -3491,7 +3491,7 @@
         <v>1118.35</v>
       </c>
       <c r="B278" t="n">
-        <v>316.661376953125</v>
+        <v>323.7322998046875</v>
       </c>
       <c r="C278" t="n">
         <v>324.199</v>
@@ -3502,7 +3502,7 @@
         <v>1118.4</v>
       </c>
       <c r="B279" t="n">
-        <v>316.4754943847656</v>
+        <v>323.6805725097656</v>
       </c>
       <c r="C279" t="n">
         <v>324.306</v>
@@ -3513,7 +3513,7 @@
         <v>1118.45</v>
       </c>
       <c r="B280" t="n">
-        <v>316.2795715332031</v>
+        <v>323.5802612304688</v>
       </c>
       <c r="C280" t="n">
         <v>325.855</v>
@@ -3524,7 +3524,7 @@
         <v>1118.5</v>
       </c>
       <c r="B281" t="n">
-        <v>316.6021728515625</v>
+        <v>323.7964477539062</v>
       </c>
       <c r="C281" t="n">
         <v>327.457</v>
@@ -3535,7 +3535,7 @@
         <v>1118.55</v>
       </c>
       <c r="B282" t="n">
-        <v>317.0474853515625</v>
+        <v>324.0567626953125</v>
       </c>
       <c r="C282" t="n">
         <v>331.197</v>
@@ -3546,7 +3546,7 @@
         <v>1118.6</v>
       </c>
       <c r="B283" t="n">
-        <v>317.49072265625</v>
+        <v>324.346435546875</v>
       </c>
       <c r="C283" t="n">
         <v>332.746</v>
@@ -3557,7 +3557,7 @@
         <v>1118.65</v>
       </c>
       <c r="B284" t="n">
-        <v>318.5086059570312</v>
+        <v>325.0362548828125</v>
       </c>
       <c r="C284" t="n">
         <v>333.44</v>
@@ -3568,7 +3568,7 @@
         <v>1118.7</v>
       </c>
       <c r="B285" t="n">
-        <v>319.7780151367188</v>
+        <v>325.8306884765625</v>
       </c>
       <c r="C285" t="n">
         <v>334.776</v>
@@ -3579,7 +3579,7 @@
         <v>1118.75</v>
       </c>
       <c r="B286" t="n">
-        <v>322.0335388183594</v>
+        <v>327.2333068847656</v>
       </c>
       <c r="C286" t="n">
         <v>333.974</v>
@@ -3590,7 +3590,7 @@
         <v>1118.8</v>
       </c>
       <c r="B287" t="n">
-        <v>324.4391174316406</v>
+        <v>328.6052856445312</v>
       </c>
       <c r="C287" t="n">
         <v>333.227</v>
@@ -3601,7 +3601,7 @@
         <v>1118.85</v>
       </c>
       <c r="B288" t="n">
-        <v>326.12744140625</v>
+        <v>329.4075317382812</v>
       </c>
       <c r="C288" t="n">
         <v>330.342</v>
@@ -3612,7 +3612,7 @@
         <v>1118.9</v>
       </c>
       <c r="B289" t="n">
-        <v>326.9133605957031</v>
+        <v>329.58447265625</v>
       </c>
       <c r="C289" t="n">
         <v>328.579</v>
@@ -3623,7 +3623,7 @@
         <v>1118.95</v>
       </c>
       <c r="B290" t="n">
-        <v>326.6144104003906</v>
+        <v>329.0879821777344</v>
       </c>
       <c r="C290" t="n">
         <v>325.694</v>
@@ -3634,7 +3634,7 @@
         <v>1119</v>
       </c>
       <c r="B291" t="n">
-        <v>324.4617919921875</v>
+        <v>327.4814453125</v>
       </c>
       <c r="C291" t="n">
         <v>325.16</v>
@@ -3645,7 +3645,7 @@
         <v>1119.05</v>
       </c>
       <c r="B292" t="n">
-        <v>322.2750854492188</v>
+        <v>326.0928955078125</v>
       </c>
       <c r="C292" t="n">
         <v>327.564</v>
@@ -3656,7 +3656,7 @@
         <v>1119.1</v>
       </c>
       <c r="B293" t="n">
-        <v>320.59521484375</v>
+        <v>325.0881958007812</v>
       </c>
       <c r="C293" t="n">
         <v>328.686</v>
@@ -3667,7 +3667,7 @@
         <v>1119.15</v>
       </c>
       <c r="B294" t="n">
-        <v>320.111328125</v>
+        <v>324.8099060058594</v>
       </c>
       <c r="C294" t="n">
         <v>328.045</v>
@@ -3678,7 +3678,7 @@
         <v>1119.2</v>
       </c>
       <c r="B295" t="n">
-        <v>320.2872009277344</v>
+        <v>324.8690490722656</v>
       </c>
       <c r="C295" t="n">
         <v>326.977</v>
@@ -3689,7 +3689,7 @@
         <v>1119.25</v>
       </c>
       <c r="B296" t="n">
-        <v>319.9688110351562</v>
+        <v>324.6553344726562</v>
       </c>
       <c r="C296" t="n">
         <v>323.558</v>
@@ -3700,7 +3700,7 @@
         <v>1119.3</v>
       </c>
       <c r="B297" t="n">
-        <v>318.5691528320312</v>
+        <v>323.8203125</v>
       </c>
       <c r="C297" t="n">
         <v>322.543</v>
@@ -3711,7 +3711,7 @@
         <v>1119.35</v>
       </c>
       <c r="B298" t="n">
-        <v>317.4434509277344</v>
+        <v>323.1642150878906</v>
       </c>
       <c r="C298" t="n">
         <v>322.222</v>
@@ -3722,7 +3722,7 @@
         <v>1119.4</v>
       </c>
       <c r="B299" t="n">
-        <v>317.7153015136719</v>
+        <v>323.3142700195312</v>
       </c>
       <c r="C299" t="n">
         <v>324.252</v>
@@ -3733,7 +3733,7 @@
         <v>1119.45</v>
       </c>
       <c r="B300" t="n">
-        <v>320.0244750976562</v>
+        <v>324.7019348144531</v>
       </c>
       <c r="C300" t="n">
         <v>325.267</v>
@@ -3744,7 +3744,7 @@
         <v>1119.5</v>
       </c>
       <c r="B301" t="n">
-        <v>320.9400634765625</v>
+        <v>325.1679077148438</v>
       </c>
       <c r="C301" t="n">
         <v>325.481</v>
@@ -3755,7 +3755,7 @@
         <v>1119.55</v>
       </c>
       <c r="B302" t="n">
-        <v>320.6367797851562</v>
+        <v>325.0925903320312</v>
       </c>
       <c r="C302" t="n">
         <v>327.938</v>
@@ -3766,7 +3766,7 @@
         <v>1119.6</v>
       </c>
       <c r="B303" t="n">
-        <v>319.4570617675781</v>
+        <v>324.5497436523438</v>
       </c>
       <c r="C303" t="n">
         <v>329.487</v>
@@ -3777,7 +3777,7 @@
         <v>1119.65</v>
       </c>
       <c r="B304" t="n">
-        <v>318.6566772460938</v>
+        <v>324.2297973632812</v>
       </c>
       <c r="C304" t="n">
         <v>331.143</v>
@@ -3788,7 +3788,7 @@
         <v>1119.7</v>
       </c>
       <c r="B305" t="n">
-        <v>318.8497314453125</v>
+        <v>324.4755249023438</v>
       </c>
       <c r="C305" t="n">
         <v>331.357</v>
@@ -3799,7 +3799,7 @@
         <v>1119.75</v>
       </c>
       <c r="B306" t="n">
-        <v>319.1347351074219</v>
+        <v>324.6746215820312</v>
       </c>
       <c r="C306" t="n">
         <v>329.273</v>
@@ -3810,7 +3810,7 @@
         <v>1119.8</v>
       </c>
       <c r="B307" t="n">
-        <v>320.0658874511719</v>
+        <v>325.2542724609375</v>
       </c>
       <c r="C307" t="n">
         <v>328.579</v>
@@ -3821,7 +3821,7 @@
         <v>1119.85</v>
       </c>
       <c r="B308" t="n">
-        <v>321.697998046875</v>
+        <v>326.19873046875</v>
       </c>
       <c r="C308" t="n">
         <v>331.41</v>
@@ -3832,7 +3832,7 @@
         <v>1119.9</v>
       </c>
       <c r="B309" t="n">
-        <v>324.3282775878906</v>
+        <v>327.719970703125</v>
       </c>
       <c r="C309" t="n">
         <v>333.494</v>
@@ -3843,7 +3843,7 @@
         <v>1119.95</v>
       </c>
       <c r="B310" t="n">
-        <v>326.2160034179688</v>
+        <v>328.620849609375</v>
       </c>
       <c r="C310" t="n">
         <v>336.165</v>
@@ -3854,7 +3854,7 @@
         <v>1120</v>
       </c>
       <c r="B311" t="n">
-        <v>328.0289916992188</v>
+        <v>329.4892578125</v>
       </c>
       <c r="C311" t="n">
         <v>337.233</v>
@@ -3865,7 +3865,7 @@
         <v>1120.05</v>
       </c>
       <c r="B312" t="n">
-        <v>329.3016357421875</v>
+        <v>329.9754638671875</v>
       </c>
       <c r="C312" t="n">
         <v>337.126</v>
@@ -3876,7 +3876,7 @@
         <v>1120.1</v>
       </c>
       <c r="B313" t="n">
-        <v>328.9682922363281</v>
+        <v>329.4312133789062</v>
       </c>
       <c r="C313" t="n">
         <v>331.998</v>
@@ -3887,7 +3887,7 @@
         <v>1120.15</v>
       </c>
       <c r="B314" t="n">
-        <v>326.3352966308594</v>
+        <v>327.5639343261719</v>
       </c>
       <c r="C314" t="n">
         <v>329.541</v>
@@ -3898,7 +3898,7 @@
         <v>1120.2</v>
       </c>
       <c r="B315" t="n">
-        <v>324.3866882324219</v>
+        <v>326.5482482910156</v>
       </c>
       <c r="C315" t="n">
         <v>327.19</v>
@@ -3909,7 +3909,7 @@
         <v>1120.25</v>
       </c>
       <c r="B316" t="n">
-        <v>325.0799255371094</v>
+        <v>327.326904296875</v>
       </c>
       <c r="C316" t="n">
         <v>325.801</v>
